--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>original_question</t>
   </si>
@@ -31,7 +31,7 @@
     <t>비밀번호 잃어버리면 어떻게 하나?</t>
   </si>
   <si>
-    <t>노무비명세서의 연장수당은 어떤 조건에 발생해?</t>
+    <t>연장수당은 어떤 조건에 발생해?</t>
   </si>
   <si>
     <t>주휴수당은 어떤 조건에 발생?</t>
@@ -40,40 +40,64 @@
     <t>휴일수당은 언제 발생해?</t>
   </si>
   <si>
-    <t>["비밀번호를 잊어버렸어요.", "로그인 비밀번호를 잃어버렸습니다.", "비밀번호가 생각나지 않아요."]</t>
-  </si>
-  <si>
-    <t>["노무비 명세서에 연장수당이 포함되는 조건은 무엇입니까?", "연장근무 수당은 어떻게 계산됩니까?", "주간 근무시간과 연장수당 발생 조건은 무엇인가요?"]</t>
-  </si>
-  <si>
-    <t>["주휴수당 지급 조건은 무엇인가요?", "주휴수당을 받으려면 어떤 요건을 충족해야 하나요?", "주휴수당 발생 조건에 대해 설명해주세요."]</t>
-  </si>
-  <si>
-    <t>["휴일근무 수당은 어떻게 계산되나요?", "공휴일에 일하면 어떤 수당을 받나요?", "휴일근무시 추가 수당은 얼마나 되나요?"]</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["로그인 화면에서 '비밀번호 찾기' 또는 유사한 기능을 찾습니다.", "본인 확인 절차(이메일, 휴대폰 번호 등)를 거쳐야 합니다."], "examples": [{"scenario": "이메일로 가입한 경우 이메일 주소를 입력하고, 인증 코드를 받아 비밀번호를 재설정합니다.", "result_a": "새로운 비밀번호 설정이 완료됩니다.", "result_b": "계정에 다시 로그인할 수 있습니다."}, {"scenario": "휴대폰 번호로 가입한 경우 휴대폰 번호를 입력하고, 인증 번호를 받아 비밀번호를 재설정합니다.", "result_c": "새로운 비밀번호 설정이 완료됩니다."}], "cautions": ["비밀번호 재설정 링크는 유효기간이 있을 수 있습니다.", "비밀번호는 안전하고 기억하기 쉬운 것을 설정해야 합니다.", "타인에게 비밀번호를 알려주지 마세요."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["1주 40시간 초과 근무 시 연장수당 발생", "1일 8시간 초과 근무 시 연장수당 발생"], "examples": [{"scenario": "월요일부터 토요일까지 매일 8시간씩 근무(총 48시간)", "result_a": "주 40시간 초과 근무: 8시간", "result_b": "연장수당 발생: 8시간"}, {"scenario": "월요일부터 금요일까지 매일 9시간씩 근무(총 45시간)", "result_c": "연장수당 발생: 5시간 (45시간 - 40시간)"}], "cautions": ["법정 최저임금 및 관련 법규에 따라 연장수당 계산 방식이 달라질 수 있음", "업체 및 계약 조건에 따라 연장수당 지급 기준이 상이할 수 있음"]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["계약서 상의 소정근로일을 모두 근무해야 한다.", "해당 주의 모든 일수에 대한 계약이 체결되어 있어야 한다."], "examples": [{"scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있다. A는 월~금 5일 계약, B는 월~일 7일 계약이다.", "result_a": "A는 주휴수당 미발생 (5일 계약)", "result_b": "B는 주휴수당 발생 (7일 계약)"}, {"scenario": "소정근로일이 월, 화, 수, 목, 금요일인 근로자 C가 월, 화, 수, 목, 금요일 모두 근무하였으나, 토, 일요일 계약이 없다.", "result_c": "C는 주휴수당 미발생 (주간 전체 계약 미체결)"}], "cautions": ["소정근로일은 계약서에 명시된 근무일을 의미한다.", "주휴수당 발생 여부는 계약 내용에 따라 달라질 수 있다."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["계약서에 명시된 휴일 및 법정 공휴일(임시공휴일, 대체공휴일 포함) 근무 시 휴일수당 발생", "근로자의 날 근무 시 휴일수당 발생"], "examples": [{"scenario": "근로자가 1월 1일(신정)에 8시간 근무하였고, 시급이 10,000원인 경우", "result_a": "기본급: 8시간 * 10,000원/시간 = 80,000원", "result_b": "휴일수당: 80,000원 * 50% = 40,000원, 총 지급액: 120,000원"}, {"scenario": "근로자가 회사 내부 규정에 명시된 휴일인 7월 1일에 4시간 근무하였고 시급이 12,000원인 경우", "result_c": "기본급: 4시간 * 12,000원/시간 = 48,000원, 휴일수당: 48,000원 * 50% = 24,000원, 총 지급액: 72,000원"}], "cautions": ["휴일수당 적용은 회사 내부 규정 및 근로계약서에 따라 상이할 수 있습니다.", "휴일근무에 대한 수당 지급 방식은 회사별로 다를 수 있으므로, 해당 내용을 반드시 계약서 또는 취업규칙에서 확인해야 합니다."]}</t>
-  </si>
-  <si>
-    <t>["비밀번호", "로그인", "비밀번호 찾기", "본인확인", "계정", "재설정"]</t>
-  </si>
-  <si>
-    <t>["연장수당", "노무비", "근무시간", "초과근무", "주간근무시간", "일일근무시간"]</t>
-  </si>
-  <si>
-    <t>["주휴수당", "소정근로일", "개근", "계약", "근무일수"]</t>
-  </si>
-  <si>
-    <t>["휴일수당", "공휴일", "근로자의 날", "시급", "수당", "근로계약서"]</t>
+    <t>노무비명세서 작성은 어떻게 해?</t>
+  </si>
+  <si>
+    <t>사업연결은 어떻게해?</t>
+  </si>
+  <si>
+    <t>["비밀번호를 잊어버렸어요.", "로그인 비밀번호를 분실했습니다.", "비밀번호를 찾는 방법을 알려주세요."]</t>
+  </si>
+  <si>
+    <t>["연장근무 수당은 언제 지급되나요?", "연장근무 수당 발생 조건은 무엇인가요?", "주간 근무시간을 초과했을 때 수당은 어떻게 계산되나요?"]</t>
+  </si>
+  <si>
+    <t>["주휴수당 지급 조건은 무엇인가요?", "주휴수당을 받으려면 어떤 요건을 충족해야 하나요?", "주휴수당 발생 기준은 무엇입니까?"]</t>
+  </si>
+  <si>
+    <t>["휴일 근무 시 수당은 어떻게 계산되나요?", "공휴일에 일하면 수당이 나오나요?", "휴일근무 수당 지급 기준은 무엇인가요?"]</t>
+  </si>
+  <si>
+    <t>["노무비 명세서를 어떻게 작성하나요?", "노무비 명세서 생성 방법은 무엇인가요?", "일용근로자 노무비 명세서는 어떻게 만들어지나요?"]</t>
+  </si>
+  <si>
+    <t>["사업 연결하는 방법은 무엇입니까?", "어떻게 사업을 연결할 수 있나요?", "사업 연결 신청은 어디서 하나요?"]</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["로그인 화면에서 '비밀번호 찾기' 또는 유사한 기능을 클릭합니다.", "본인 확인 절차를 거쳐야 합니다. (휴대폰, 신용카드, 아이핀 등)"], "examples": [{"scenario": "휴대폰 인증을 통해 비밀번호를 찾는 경우", "result_a": "휴대폰 번호를 입력하고 인증번호를 받습니다.", "result_b": "인증번호를 입력하면 새로운 비밀번호를 설정할 수 있습니다."}, {"scenario": "신용카드 인증을 통해 비밀번호를 찾는 경우", "result_c": "카드번호와 유효기간 등의 정보를 입력하여 본인 인증을 진행하고 새로운 비밀번호를 설정합니다."}], "cautions": ["본인 인증에 필요한 정보를 정확하게 입력해야 합니다.", "비밀번호 재설정 링크가 포함된 이메일이나 문자 메시지는 안전하지 않은 출처에서 열지 마세요.  항상 공식적인 경로를 통해 비밀번호를 재설정하십시오."]}</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["주 40시간을 초과하여 근무한 경우 연장수당 발생", "1일에 8시간을 초과하여 근무한 경우 연장수당 발생"], "examples": [{"scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무한 경우", "result_a": "주 40시간 초과 근무시간: 8시간", "result_b": "8시간에 대한 연장수당 지급"}, {"scenario": "월요일부터 금요일까지 매일 9시간씩 총 45시간 근무한 경우", "result_c": "5시간에 대한 연장수당 지급 (주 40시간 초과 5시간)"}], "cautions": ["회사 내규에 따라 연장수당 계산 방식 및 지급 기준이 상이할 수 있음", "연장근무에 대한 사전 승인 여부 확인 필요"]}</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["근로자의 계약서 상 소정근로일을 모두 개근해야 한다.", "해당 주의 모든 계약일에 대한 근무가 이루어져야 한다. (일주일 전체 계약)"], "examples": [{"scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있다. A는 월~금 5일 계약, B는 월~일 7일 계약이다.", "result_a": "A는 주휴수당 미발생 (5일 계약)", "result_b": "B는 주휴수당 발생 (7일 계약, 주중 5일 근무 포함)"}, {"scenario": "소정근로일이 월, 수, 금인 근로자 C가 월, 수, 금 모두 근무하였고, 계약기간은 월~일 7일이다.", "result_c": "C는 주휴수당 발생 (소정근로일 개근 및 7일 계약 충족)"}], "cautions": ["계약서 상의 소정근로일과 실제 근무일을 정확히 확인해야 한다.", "주휴수당 발생 여부는 계약 내용에 따라 달라질 수 있으므로, 계약서를 꼼꼼히 확인하는 것이 중요하다."]}</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["계약서에 명시된 휴일 및 법정 공휴일(임시공휴일, 대체공휴일 포함), 근로자의 날에 근무한 경우 휴일수당이 발생합니다.", "휴일수당은 기본 시급 또는 일급의 50%가 가산되어 지급됩니다."], "examples": [{"scenario": "A씨는 5월 1일(근로자의 날)에 8시간 근무하였고, 시급이 10,000원입니다. ", "result_a": "기본급: 8시간 * 10,000원/시간 = 80,000원", "result_b": "휴일수당: 80,000원 * 50% = 40,000원,  총 지급액: 80,000원 + 40,000원 = 120,000원"}, {"scenario": "B씨는 추석 연휴 중 회사의 요청으로 2일간 근무하였고, 일급이 80,000원입니다.", "result_c": "기본급: 80,000원/일 * 2일 = 160,000원, 휴일수당: 160,000원 * 50% = 80,000원, 총 지급액: 160,000원 + 80,000원 = 240,000원"}], "cautions": ["계약서에 명시된 휴일 외의 휴일 근무에 대한 수당 지급 여부는 별도로 확인해야 합니다.", "회사 내부 규정에 따라 휴일수당 지급 방식이 다를 수 있으므로, 해당 규정을 확인하는 것이 좋습니다."]}</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["노무비 명세서는 직접 입력할 수 없습니다. 일용근로자계약서관리 메뉴에서 계약서를 작성하고, 출퇴근관리 메뉴에서 근무내역을 입력해야 합니다.", "시스템이 계약서의 임금과 근무시간을 기반으로 노무비(기본수당, 연장수당, 야간수당, 휴일수당, 주휴수당, 연차수당) 및 원천징수를 자동 계산합니다."], "examples": [{"scenario": "주 40시간 근무, 주휴수당 포함 계약의 경우", "result_a": "주 40시간 근무 시 기본급과 주휴수당이 자동 계산됩니다.", "result_b": "계약서에 명시된 주휴수당 지급 기준에 따라 정확한 금액이 산출됩니다."}, {"scenario": "주 30시간 근무, 주휴수당 미포함 계약의 경우", "result_c": "주 30시간 근무 시 기본급만 계산되며, 주휴수당은 포함되지 않습니다."}, {"scenario": "연장근무가 있는 경우", "result_a": "연장근무 시간에 따라 연장수당이 자동으로 계산됩니다.", "result_b": "야간근무 및 휴일근무가 있을 경우, 야간수당 및 휴일수당도 함께 계산됩니다."}], "cautions": ["노무비 명세서 금액 수정 시에는 반드시 사유를 입력해야 합니다.", "금액 수정 사유는 추후 소명자료로 사용됩니다."]}</t>
+  </si>
+  <si>
+    <t>{"basic_rules": ["발주처는 '권한관리 &gt; 사업연결/등록신청' 메뉴에서 사업을 검색하고 연결 신청을 할 수 있습니다.", "시공사 및 건설사업관리자는 발주처가 사업에 연결되어 있어야만 사업 연결 신청이 가능합니다."], "examples": [{"scenario": "정확한 사업명을 알고 있고, 사업 상태가 '전체' 또는 '완료'인 경우", "result_a": "사업명을 정확하게 입력하여 검색하고, 사업명 앞의 체크박스를 체크합니다.", "result_b": "'사업연결 신청' 버튼을 클릭하여 사업을 연결합니다."}, {"scenario": "사업명을 정확히 모르거나, 사업 상태가 '종료'인 경우(공기연장 후 OnePMIS에서 처리되지 않은 경우)", "result_c": "사업 상태를 '전체' 또는 '완료'로 변경하여 검색하고, 정확한 사업명을 찾은 후 연결 신청합니다. 사업 연결 후 반드시 OnePMIS에서 공기연장 처리를 해야 합니다."}], "cautions": ["사업명 검색 시 정확한 사업명을 입력해야 합니다. 사업명이 유사한 경우가 많으므로 주의해야 합니다.", "발주처는 본인 담당 사업에 항상 연결되어 있는지 확인해야 합니다. 시공사 및 건설사업관리자는 발주처의 사업 연결 상태를 확인해야 합니다.", "공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료되어 사업 연결이 불가능할 수 있습니다."]}</t>
+  </si>
+  <si>
+    <t>["비밀번호 찾기", "비밀번호 분실", "본인인증", "휴대폰 인증", "신용카드 인증", "아이핀"]</t>
+  </si>
+  <si>
+    <t>["연장수당", "연장근무", "초과근무", "주40시간", "일8시간"]</t>
+  </si>
+  <si>
+    <t>["주휴수당", "소정근로일", "개근", "계약", "일주일"]</t>
+  </si>
+  <si>
+    <t>["휴일수당", "공휴일", "근로자의 날", "시급", "일급", "가산수당"]</t>
+  </si>
+  <si>
+    <t>["노무비 명세서", "일용근로자", "계약서", "출퇴근 관리", "수당", "원천징수"]</t>
+  </si>
+  <si>
+    <t>["사업연결", "사업연결신청", "OnePMIS", "발주처", "시공사", "건설사업관리자", "공기연장"]</t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -470,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -484,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -498,13 +522,41 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -46,58 +46,259 @@
     <t>사업연결은 어떻게해?</t>
   </si>
   <si>
-    <t>["비밀번호를 잊어버렸어요.", "로그인 비밀번호를 분실했습니다.", "비밀번호를 찾는 방법을 알려주세요."]</t>
-  </si>
-  <si>
-    <t>["연장근무 수당은 언제 지급되나요?", "연장근무 수당 발생 조건은 무엇인가요?", "주간 근무시간을 초과했을 때 수당은 어떻게 계산되나요?"]</t>
-  </si>
-  <si>
-    <t>["주휴수당 지급 조건은 무엇인가요?", "주휴수당을 받으려면 어떤 요건을 충족해야 하나요?", "주휴수당 발생 기준은 무엇입니까?"]</t>
-  </si>
-  <si>
-    <t>["휴일 근무 시 수당은 어떻게 계산되나요?", "공휴일에 일하면 수당이 나오나요?", "휴일근무 수당 지급 기준은 무엇인가요?"]</t>
-  </si>
-  <si>
-    <t>["노무비 명세서를 어떻게 작성하나요?", "노무비 명세서 생성 방법은 무엇인가요?", "일용근로자 노무비 명세서는 어떻게 만들어지나요?"]</t>
-  </si>
-  <si>
-    <t>["사업 연결하는 방법은 무엇입니까?", "어떻게 사업을 연결할 수 있나요?", "사업 연결 신청은 어디서 하나요?"]</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["로그인 화면에서 '비밀번호 찾기' 또는 유사한 기능을 클릭합니다.", "본인 확인 절차를 거쳐야 합니다. (휴대폰, 신용카드, 아이핀 등)"], "examples": [{"scenario": "휴대폰 인증을 통해 비밀번호를 찾는 경우", "result_a": "휴대폰 번호를 입력하고 인증번호를 받습니다.", "result_b": "인증번호를 입력하면 새로운 비밀번호를 설정할 수 있습니다."}, {"scenario": "신용카드 인증을 통해 비밀번호를 찾는 경우", "result_c": "카드번호와 유효기간 등의 정보를 입력하여 본인 인증을 진행하고 새로운 비밀번호를 설정합니다."}], "cautions": ["본인 인증에 필요한 정보를 정확하게 입력해야 합니다.", "비밀번호 재설정 링크가 포함된 이메일이나 문자 메시지는 안전하지 않은 출처에서 열지 마세요.  항상 공식적인 경로를 통해 비밀번호를 재설정하십시오."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["주 40시간을 초과하여 근무한 경우 연장수당 발생", "1일에 8시간을 초과하여 근무한 경우 연장수당 발생"], "examples": [{"scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무한 경우", "result_a": "주 40시간 초과 근무시간: 8시간", "result_b": "8시간에 대한 연장수당 지급"}, {"scenario": "월요일부터 금요일까지 매일 9시간씩 총 45시간 근무한 경우", "result_c": "5시간에 대한 연장수당 지급 (주 40시간 초과 5시간)"}], "cautions": ["회사 내규에 따라 연장수당 계산 방식 및 지급 기준이 상이할 수 있음", "연장근무에 대한 사전 승인 여부 확인 필요"]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["근로자의 계약서 상 소정근로일을 모두 개근해야 한다.", "해당 주의 모든 계약일에 대한 근무가 이루어져야 한다. (일주일 전체 계약)"], "examples": [{"scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있다. A는 월~금 5일 계약, B는 월~일 7일 계약이다.", "result_a": "A는 주휴수당 미발생 (5일 계약)", "result_b": "B는 주휴수당 발생 (7일 계약, 주중 5일 근무 포함)"}, {"scenario": "소정근로일이 월, 수, 금인 근로자 C가 월, 수, 금 모두 근무하였고, 계약기간은 월~일 7일이다.", "result_c": "C는 주휴수당 발생 (소정근로일 개근 및 7일 계약 충족)"}], "cautions": ["계약서 상의 소정근로일과 실제 근무일을 정확히 확인해야 한다.", "주휴수당 발생 여부는 계약 내용에 따라 달라질 수 있으므로, 계약서를 꼼꼼히 확인하는 것이 중요하다."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["계약서에 명시된 휴일 및 법정 공휴일(임시공휴일, 대체공휴일 포함), 근로자의 날에 근무한 경우 휴일수당이 발생합니다.", "휴일수당은 기본 시급 또는 일급의 50%가 가산되어 지급됩니다."], "examples": [{"scenario": "A씨는 5월 1일(근로자의 날)에 8시간 근무하였고, 시급이 10,000원입니다. ", "result_a": "기본급: 8시간 * 10,000원/시간 = 80,000원", "result_b": "휴일수당: 80,000원 * 50% = 40,000원,  총 지급액: 80,000원 + 40,000원 = 120,000원"}, {"scenario": "B씨는 추석 연휴 중 회사의 요청으로 2일간 근무하였고, 일급이 80,000원입니다.", "result_c": "기본급: 80,000원/일 * 2일 = 160,000원, 휴일수당: 160,000원 * 50% = 80,000원, 총 지급액: 160,000원 + 80,000원 = 240,000원"}], "cautions": ["계약서에 명시된 휴일 외의 휴일 근무에 대한 수당 지급 여부는 별도로 확인해야 합니다.", "회사 내부 규정에 따라 휴일수당 지급 방식이 다를 수 있으므로, 해당 규정을 확인하는 것이 좋습니다."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["노무비 명세서는 직접 입력할 수 없습니다. 일용근로자계약서관리 메뉴에서 계약서를 작성하고, 출퇴근관리 메뉴에서 근무내역을 입력해야 합니다.", "시스템이 계약서의 임금과 근무시간을 기반으로 노무비(기본수당, 연장수당, 야간수당, 휴일수당, 주휴수당, 연차수당) 및 원천징수를 자동 계산합니다."], "examples": [{"scenario": "주 40시간 근무, 주휴수당 포함 계약의 경우", "result_a": "주 40시간 근무 시 기본급과 주휴수당이 자동 계산됩니다.", "result_b": "계약서에 명시된 주휴수당 지급 기준에 따라 정확한 금액이 산출됩니다."}, {"scenario": "주 30시간 근무, 주휴수당 미포함 계약의 경우", "result_c": "주 30시간 근무 시 기본급만 계산되며, 주휴수당은 포함되지 않습니다."}, {"scenario": "연장근무가 있는 경우", "result_a": "연장근무 시간에 따라 연장수당이 자동으로 계산됩니다.", "result_b": "야간근무 및 휴일근무가 있을 경우, 야간수당 및 휴일수당도 함께 계산됩니다."}], "cautions": ["노무비 명세서 금액 수정 시에는 반드시 사유를 입력해야 합니다.", "금액 수정 사유는 추후 소명자료로 사용됩니다."]}</t>
-  </si>
-  <si>
-    <t>{"basic_rules": ["발주처는 '권한관리 &gt; 사업연결/등록신청' 메뉴에서 사업을 검색하고 연결 신청을 할 수 있습니다.", "시공사 및 건설사업관리자는 발주처가 사업에 연결되어 있어야만 사업 연결 신청이 가능합니다."], "examples": [{"scenario": "정확한 사업명을 알고 있고, 사업 상태가 '전체' 또는 '완료'인 경우", "result_a": "사업명을 정확하게 입력하여 검색하고, 사업명 앞의 체크박스를 체크합니다.", "result_b": "'사업연결 신청' 버튼을 클릭하여 사업을 연결합니다."}, {"scenario": "사업명을 정확히 모르거나, 사업 상태가 '종료'인 경우(공기연장 후 OnePMIS에서 처리되지 않은 경우)", "result_c": "사업 상태를 '전체' 또는 '완료'로 변경하여 검색하고, 정확한 사업명을 찾은 후 연결 신청합니다. 사업 연결 후 반드시 OnePMIS에서 공기연장 처리를 해야 합니다."}], "cautions": ["사업명 검색 시 정확한 사업명을 입력해야 합니다. 사업명이 유사한 경우가 많으므로 주의해야 합니다.", "발주처는 본인 담당 사업에 항상 연결되어 있는지 확인해야 합니다. 시공사 및 건설사업관리자는 발주처의 사업 연결 상태를 확인해야 합니다.", "공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료되어 사업 연결이 불가능할 수 있습니다."]}</t>
-  </si>
-  <si>
-    <t>["비밀번호 찾기", "비밀번호 분실", "본인인증", "휴대폰 인증", "신용카드 인증", "아이핀"]</t>
-  </si>
-  <si>
-    <t>["연장수당", "연장근무", "초과근무", "주40시간", "일8시간"]</t>
-  </si>
-  <si>
-    <t>["주휴수당", "소정근로일", "개근", "계약", "일주일"]</t>
-  </si>
-  <si>
-    <t>["휴일수당", "공휴일", "근로자의 날", "시급", "일급", "가산수당"]</t>
-  </si>
-  <si>
-    <t>["노무비 명세서", "일용근로자", "계약서", "출퇴근 관리", "수당", "원천징수"]</t>
-  </si>
-  <si>
-    <t>["사업연결", "사업연결신청", "OnePMIS", "발주처", "시공사", "건설사업관리자", "공기연장"]</t>
+    <t>[
+  "비밀번호를 잊어버렸어요.",
+  "로그인 비밀번호가 생각나지 않아요.",
+  "비밀번호를 분실했습니다.",
+  "내 비밀번호를 어떻게 찾나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장근무 수당은 언제 지급되나요?",
+  "연장근무는 어떻게 계산되나요?",
+  "주간 근무시간이 초과되면 어떻게 되나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당 지급 조건은 무엇인가요?",
+  "주휴수당을 받으려면 어떤 요건을 충족해야 하나요?",
+  "주휴수당 발생 조건에 대해 설명해주세요."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일 근무 시 수당은 어떻게 계산되나요?",
+  "공휴일에 일하면 수당이 나오나요?",
+  "휴일근무 수당 지급 기준은 무엇인가요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "노무비명세서 작성 방법은 무엇입니까?",
+  "노무비명세서를 어떻게 만들 수 있나요?",
+  "노무비명세서는 직접 입력할 수 있나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "사업 연결 방법은 무엇입니까?",
+  "어떻게 다른 사업에 연결할 수 있나요?",
+  "사업 연결 신청은 어디서 하나요?"
+]</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "로그인 화면의 '비밀번호 찾기' 기능을 이용한다.",
+    "본인 확인 절차를 거쳐야 한다."
+  ],
+  "examples": [
+    {
+      "scenario": "휴대전화 번호로 본인 인증을 진행하는 경우",
+      "result_a": "휴대전화로 인증번호가 발송된다.",
+      "result_b": "인증번호를 입력하고 새로운 비밀번호를 설정한다."
+    },
+    {
+      "scenario": "신용카드 정보로 본인 인증을 진행하는 경우",
+      "result_a": "신용카드 정보를 입력하여 본인 인증을 진행한다.",
+      "result_b": "인증 성공 후 새로운 비밀번호를 설정한다."
+    },
+    {
+      "scenario": "아이핀으로 본인 인증을 진행하는 경우",
+      "result_c": "아이핀 인증 절차를 거쳐 새로운 비밀번호를 설정한다."
+    }
+  ],
+  "cautions": [
+    "본인 인증에 필요한 정보를 정확하게 입력해야 한다.",
+    "비밀번호 찾기 과정에서 악성코드에 감염되지 않도록 주의해야 한다.",
+    "새로운 비밀번호는 안전하고 기억하기 쉬운 비밀번호로 설정해야 한다."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "1주 40시간 초과 근무 시 연장수당 발생",
+    "1일 8시간 초과 근무 시 연장수당 발생"
+  ],
+  "examples": [
+    {
+      "scenario": "월요일부터 토요일까지 매일 8시간씩 근무(총 48시간)",
+      "result_a": "주 40시간 초과 근무시간: 8시간",
+      "result_b": "연장수당 발생 시간: 8시간"
+    },
+    {
+      "scenario": "월요일부터 금요일까지 매일 9시간씩 근무(총 45시간)",
+      "result_c": "연장수당 발생 시간: 5시간 (45시간 - 40시간)"
+    }
+  ],
+  "cautions": [
+    "법정 공휴일 근무는 별도의 수당이 적용될 수 있습니다.",
+    "회사 내규에 따라 연장수당 계산 방식이 다를 수 있습니다."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "계약상 소정근로일을 모두 근무해야 함.",
+    "해당 주의 모든 일수에 대한 계약이 체결되어 있어야 함."
+  ],
+  "examples": [
+    {
+      "scenario": "월~금요일을 소정근로일로 하는 두 명의 근로자 A와 B가 있습니다. A는 월~금(5일) 계약, B는 월~일(7일) 계약입니다. 둘 다 월~금까지 근무했습니다.",
+      "result_a": "A는 주휴수당 미발생 (계약일수가 5일이므로 주 7일 계약 조건 미충족)",
+      "result_b": "B는 주휴수당 발생 (계약일수가 7일이므로 주 7일 계약 조건 충족)"
+    },
+    {
+      "scenario": "소정근로일이 월~토요일인 근로자 C가 월~토요일까지 근무하였으나, 일요일에 대한 계약이 체결되어 있지 않습니다.",
+      "result_c": "C는 주휴수당 미발생 (주 7일 계약 조건 미충족)"
+    }
+  ],
+  "cautions": [
+    "소정근로일과 실제 근무일, 계약 기간을 정확히 확인해야 합니다.",
+    "근무시간 및 휴일 등 기타 계약 조건에 따라 주휴수당 지급 여부가 달라질 수 있습니다."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "계약서에 명시된 휴일 및 법정 공휴일(임시공휴일, 대체공휴일 포함) 근무 시 휴일수당 발생",
+    "근로자의 날 근무 시 휴일수당 발생"
+  ],
+  "examples": [
+    {
+      "scenario": "계약서 상 휴일인 토요일에 근무하고, 법정 공휴일인 추석에도 근무한 경우",
+      "result_a": "토요일 근무에 대한 휴일수당 발생",
+      "result_b": "추석 근무에 대한 휴일수당 발생 (기본 시급의 50% 가산)"
+    },
+    {
+      "scenario": "평일 근무 중 근로자의 날에 근무한 경우",
+      "result_c": "근로자의 날 근무에 대한 휴일수당 발생 (기본 시급의 50% 가산)"
+    }
+  ],
+  "cautions": [
+    "휴일수당은 기본 시급의 50%가 가산되는 것이 일반적이나, 계약 내용에 따라 다를 수 있음",
+    "휴일수당 적용 여부는 근로계약서 및 관련 법규를 확인해야 함"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "노무비명세서는 직접 입력할 수 없습니다. 일용근로자계약서관리 메뉴를 통해 계약서를 작성해야 합니다.",
+    "출퇴근관리 메뉴에서 근로자의 출역내역을 입력해야 시스템이 노무비를 자동 계산합니다."
+  ],
+  "examples": [
+    {
+      "scenario": "주휴수당 포함 계산 예시:  주 40시간 근무 계약을 맺은 근로자가 1주일간 40시간 근무했을 경우",
+      "result_a": "기본급 + 연장수당 + 야간수당 + 휴일수당 + 주휴수당(주 40시간 근무 시 적용)이 계산됩니다.",
+      "result_b": "소득세 등 원천징수액이 자동으로 계산되어 명세서에 표시됩니다."
+    },
+    {
+      "scenario": "주휴수당 미포함 계산 예시: 주 40시간 근무 계약을 맺은 근로자가 1주일간 30시간 근무했을 경우",
+      "result_c": "기본급(30시간분) + 연장수당(해당 시) + 야간수당(해당 시) + 휴일수당(해당 시)만 계산되고 주휴수당은 포함되지 않습니다. 소득세 등 원천징수액도 계산됩니다."
+    },
+    {
+      "scenario": "수정 필요 시 예시: 노무비명세서 금액을 잘못 입력했을 경우",
+      "result_a": "노무비명세서 상세화면에서 금액을 클릭하여 수정 가능합니다.",
+      "result_b": "금액 수정 시 수정 사유를 반드시 입력해야 합니다. 사유는 소명자료로 사용됩니다."
+    }
+  ],
+  "cautions": [
+    "노무비명세서 금액 수정 시 사유를 반드시 입력해야 합니다.",
+    "계약서 정보와 출퇴근 내역이 정확해야 정확한 노무비 계산이 가능합니다."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "basic_rules": [
+    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청 버튼을 클릭합니다.",
+    "사업 검색 후 연결 신청을 합니다."
+  ],
+  "examples": [
+    {
+      "scenario": "정확한 사업명을 알고 있고, 사업 상태가 '전체' 또는 '완료'인 경우",
+      "result_a": "사업 검색 결과가 나타나며, 체크박스를 선택하고 사업 연결 신청을 할 수 있습니다.",
+      "result_b": "사업 연결이 성공적으로 완료됩니다."
+    },
+    {
+      "scenario": "사업명을 정확하게 모르거나, 사업 상태가 '종료'인 경우(공기연장 후 OnePMIS에서 공기연장 처리가 안 된 경우)",
+      "result_c": "사업 검색 결과가 나타나지 않을 수 있습니다. 사업명을 정확히 입력하거나, 사업 상태를 '전체' 또는 '완료'로 변경하여 검색해야 합니다. 발주처 사용자는 사업 연결 후 공기연장 처리를 반드시 해야 합니다."
+    }
+  ],
+  "cautions": [
+    "시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업 연결 신청을 할 수 없습니다.",
+    "사업명을 정확하게 입력해야 검색 결과가 정확하게 나타납니다. 사업명이 유사한 경우가 많으므로 주의해야 합니다.",
+    "공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료로 변경되어 검색되지 않을 수 있습니다. 발주처는 사업 연결 후 공기연장 처리를 꼭 해야 합니다."
+  ]
+}</t>
+  </si>
+  <si>
+    <t>[
+  "비밀번호",
+  "로그인",
+  "비밀번호 찾기",
+  "본인인증",
+  "휴대폰",
+  "신용카드",
+  "아이핀"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장수당",
+  "연장근무",
+  "초과근무",
+  "주간근무시간",
+  "일일근무시간"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당",
+  "소정근로일",
+  "계약",
+  "개근",
+  "주7일"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일수당",
+  "공휴일",
+  "근로자의 날",
+  "임시공휴일",
+  "대체공휴일",
+  "근무",
+  "수당"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "노무비명세서",
+  "일용근로자계약서",
+  "출퇴근관리",
+  "주휴수당",
+  "원천징수"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "사업연결",
+  "사업 검색",
+  "권한관리",
+  "등록신청",
+  "공기연장",
+  "OnePMIS",
+  "발주처",
+  "시공사",
+  "건설사업관리자"
+]</t>
   </si>
 </sst>
 </file>

--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -47,206 +47,189 @@
   </si>
   <si>
     <t>[
-  "비밀번호를 잊어버렸어요.",
-  "로그인 비밀번호가 생각나지 않아요.",
-  "비밀번호를 분실했습니다.",
-  "내 비밀번호를 어떻게 찾나요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "연장근무 수당은 언제 지급되나요?",
-  "연장근무는 어떻게 계산되나요?",
-  "주간 근무시간이 초과되면 어떻게 되나요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "주휴수당 지급 조건은 무엇인가요?",
-  "주휴수당을 받으려면 어떤 요건을 충족해야 하나요?",
-  "주휴수당 발생 조건에 대해 설명해주세요."
-]</t>
-  </si>
-  <si>
-    <t>[
-  "휴일 근무 시 수당은 어떻게 계산되나요?",
-  "공휴일에 일하면 수당이 나오나요?",
-  "휴일근무 수당 지급 기준은 무엇인가요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "노무비명세서 작성 방법은 무엇입니까?",
-  "노무비명세서를 어떻게 만들 수 있나요?",
-  "노무비명세서는 직접 입력할 수 있나요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "사업 연결 방법은 무엇입니까?",
-  "어떻게 다른 사업에 연결할 수 있나요?",
-  "사업 연결 신청은 어디서 하나요?"
+  "비밀번호를 분실했을 경우 어떻게 해야 하나요?",
+  "혹시 비밀번호를 잊어버렸는데, 다시 찾는 방법을 알려주시겠습니까?",
+  "비밀번호를 찾는 방법에 대해 안내 부탁드립니다."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장근무 수당은 어떤 경우에 지급되나요?",
+  "연장근무에 대한 수당은 어떠한 조건을 충족해야 지급받을 수 있을까요?",
+  "주간 근무시간과 일일 근무시간을 초과했을 때, 연장근무 수당이 발생하는 조건이 무엇인가요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당이 발생하는 조건에 대해 자세히 설명해 주시겠습니까?",
+  "주휴수당 지급에 관한 자세한 기준은 무엇인가요?",
+  "어떤 경우에 주휴수당을 받을 수 있는지 알려주세요."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일 근무 시 수당 지급 기준은 어떻게 되나요?",
+  "휴일근무 수당은 어떤 경우에 발생하나요?",
+  "휴일 수당과 관련하여 자세한 내용을 알고 싶습니다."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "노무비 명세서 작성 방법을 알려주시겠습니까?",
+  "노무비 명세서는 어떻게 작성해야 하나요?",
+  "노무비 명세서를 작성하는 절차를 자세히 설명해주시면 감사하겠습니다."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "사업 연결 방법을 알려주시겠습니까?",
+  "사업을 어떻게 연결할 수 있을까요?",
+  "사업 연결 절차에 대해 자세히 설명해 주시면 감사하겠습니다."
 ]</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "로그인 화면의 '비밀번호 찾기' 기능을 이용한다.",
-    "본인 확인 절차를 거쳐야 한다."
+    "로그인 화면에서 '비밀번호 찾기' 기능을 이용해주세요.",
+    "본인 확인 절차를 거쳐야 비밀번호를 재설정할 수 있습니다."
   ],
   "examples": [
     {
-      "scenario": "휴대전화 번호로 본인 인증을 진행하는 경우",
-      "result_a": "휴대전화로 인증번호가 발송된다.",
-      "result_b": "인증번호를 입력하고 새로운 비밀번호를 설정한다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있는 경우",
+      "result_a": "휴대전화로 인증번호가 발송되며, 해당 번호를 입력하시면 비밀번호를 재설정할 수 있습니다.",
+      "result_b": "인증번호를 입력 후 새로운 비밀번호를 설정하시면 됩니다.  비밀번호는 안전하게 관리하시는 것이 좋습니다."
     },
     {
-      "scenario": "신용카드 정보로 본인 인증을 진행하는 경우",
-      "result_a": "신용카드 정보를 입력하여 본인 인증을 진행한다.",
-      "result_b": "인증 성공 후 새로운 비밀번호를 설정한다."
-    },
-    {
-      "scenario": "아이핀으로 본인 인증을 진행하는 경우",
-      "result_c": "아이핀 인증 절차를 거쳐 새로운 비밀번호를 설정한다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있지 않지만, 신용카드 정보가 등록되어 있는 경우",
+      "result_c": "등록된 신용카드 정보를 이용하여 본인 인증을 진행하신 후, 새로운 비밀번호를 설정하실 수 있습니다.  안전한 비밀번호를 설정하시는 것을 권장드립니다."
     }
   ],
   "cautions": [
-    "본인 인증에 필요한 정보를 정확하게 입력해야 한다.",
-    "비밀번호 찾기 과정에서 악성코드에 감염되지 않도록 주의해야 한다.",
-    "새로운 비밀번호는 안전하고 기억하기 쉬운 비밀번호로 설정해야 한다."
+    "비밀번호를 재설정할 때는 안전하고 기억하기 쉬운 비밀번호를 설정하시는 것이 좋습니다.",
+    "비밀번호는 다른 사람에게 알려주지 마시고 안전하게 보관해주세요."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "1주 40시간 초과 근무 시 연장수당 발생",
-    "1일 8시간 초과 근무 시 연장수당 발생"
+    "주당 근무시간이 40시간을 초과하는 경우 연장수당이 발생합니다.",
+    "하루 8시간을 초과하여 근무하는 경우 연장수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 토요일까지 매일 8시간씩 근무(총 48시간)",
-      "result_a": "주 40시간 초과 근무시간: 8시간",
-      "result_b": "연장수당 발생 시간: 8시간"
+      "scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무하셨다면,",
+      "result_a": "주 40시간을 초과한 8시간에 대해 연장수당이 지급됩니다.",
+      "result_b": "일일 8시간 근무를 초과한 시간은 없으므로, 이 부분에 대한 추가적인 연장수당은 없습니다."
     },
     {
-      "scenario": "월요일부터 금요일까지 매일 9시간씩 근무(총 45시간)",
-      "result_c": "연장수당 발생 시간: 5시간 (45시간 - 40시간)"
+      "scenario": "월요일부터 금요일까지는 하루 8시간씩 근무하고, 토요일에 4시간 근무하셨다면,",
+      "result_c": "주 40시간을 초과한 4시간에 대해 연장수당이 지급됩니다."
     }
   ],
   "cautions": [
-    "법정 공휴일 근무는 별도의 수당이 적용될 수 있습니다.",
-    "회사 내규에 따라 연장수당 계산 방식이 다를 수 있습니다."
+    "연장근무 수당 적용 기준은 회사 내규 및 관련 법률에 따라 다를 수 있습니다. 자세한 사항은 회사 인사부서에 문의해주시기 바랍니다.",
+    "연장근무 발생 시, 반드시 근무시간을 정확히 기록하고, 회사에 신고하여야 연장수당을 정확하게 지급받을 수 있습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "계약상 소정근로일을 모두 근무해야 함.",
-    "해당 주의 모든 일수에 대한 계약이 체결되어 있어야 함."
+    "근로자분께서 계약서에 명시된 소정 근로일에 모두 출근하셨는지 확인해야 합니다.",
+    "해당 주의 모든 계약일에 대한 근무가 완료되었는지 확인해야 합니다.  즉, 계약상 근무일이 7일이라면 7일 모두 근무해야 주휴수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월~금요일을 소정근로일로 하는 두 명의 근로자 A와 B가 있습니다. A는 월~금(5일) 계약, B는 월~일(7일) 계약입니다. 둘 다 월~금까지 근무했습니다.",
-      "result_a": "A는 주휴수당 미발생 (계약일수가 5일이므로 주 7일 계약 조건 미충족)",
-      "result_b": "B는 주휴수당 발생 (계약일수가 7일이므로 주 7일 계약 조건 충족)"
+      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A씨와 B씨가 있습니다. A씨는 월요일부터 금요일까지(5일) 계약되어 있고, B씨는 월요일부터 일요일까지(7일) 계약되어 있습니다. 두 분 모두 월요일부터 금요일까지 5일간 근무하셨습니다.",
+      "result_a": "A씨의 경우, 계약 기간이 5일이므로 주휴수당이 발생하지 않습니다.",
+      "result_b": "B씨의 경우, 계약 기간이 7일이고 해당 주의 모든 계약일에 대한 근무를 완료하셨으므로 주휴수당이 발생합니다."
     },
     {
-      "scenario": "소정근로일이 월~토요일인 근로자 C가 월~토요일까지 근무하였으나, 일요일에 대한 계약이 체결되어 있지 않습니다.",
-      "result_c": "C는 주휴수당 미발생 (주 7일 계약 조건 미충족)"
+      "scenario": "C씨는 토요일과 일요일을 제외한 월요일부터 금요일까지 근무하는 계약을 맺었습니다. 하지만 월요일에 개인적인 사정으로 결근하였습니다.",
+      "result_c": "C씨는 소정 근로일에 모두 출근하지 않았으므로 주휴수당이 발생하지 않습니다."
     }
   ],
   "cautions": [
-    "소정근로일과 실제 근무일, 계약 기간을 정확히 확인해야 합니다.",
-    "근무시간 및 휴일 등 기타 계약 조건에 따라 주휴수당 지급 여부가 달라질 수 있습니다."
+    "주휴수당 발생 여부는 근로계약서에 명시된 내용을 기준으로 판단해야 합니다. 계약서에 명시되지 않았다면, 회사 내부 규정을 확인하시는 것이 좋습니다.",
+    "소정근로일과 주휴수당 지급에 대한 자세한 내용은 고용노동부 또는 관련 법률을 참고하시는 것이 좋습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "계약서에 명시된 휴일 및 법정 공휴일(임시공휴일, 대체공휴일 포함) 근무 시 휴일수당 발생",
-    "근로자의 날 근무 시 휴일수당 발생"
+    "계약서에 명시된 휴일, 공휴일(임시공휴일 및 대체공휴일 포함), 근로자의 날에 근무하신 경우 휴일수당이 발생합니다.",
+    "휴일수당은 기본 시급 또는 일급의 50%를 가산하여 지급됩니다."
   ],
   "examples": [
     {
-      "scenario": "계약서 상 휴일인 토요일에 근무하고, 법정 공휴일인 추석에도 근무한 경우",
-      "result_a": "토요일 근무에 대한 휴일수당 발생",
-      "result_b": "추석 근무에 대한 휴일수당 발생 (기본 시급의 50% 가산)"
+      "scenario": "근로계약서 상의 휴일인 토요일에 근무하셨고, 이날 공휴일은 아니었습니다. 또한, 근로자의 날에도 근무하셨습니다.",
+      "result_a": "토요일 근무에 대해서는 계약서에 명시된 휴일 근무 수당이 지급됩니다.",
+      "result_b": "근로자의 날 근무에 대해서도 휴일 수당이 지급됩니다."
     },
     {
-      "scenario": "평일 근무 중 근로자의 날에 근무한 경우",
-      "result_c": "근로자의 날 근무에 대한 휴일수당 발생 (기본 시급의 50% 가산)"
+      "scenario": "설날(공휴일)에 근무하셨습니다.",
+      "result_c": "설날 근무에 대해 휴일 수당이 지급됩니다."
     }
   ],
   "cautions": [
-    "휴일수당은 기본 시급의 50%가 가산되는 것이 일반적이나, 계약 내용에 따라 다를 수 있음",
-    "휴일수당 적용 여부는 근로계약서 및 관련 법규를 확인해야 함"
+    "휴일수당 지급 여부 및 기준은 근로계약서 내용을 우선적으로 확인하시는 것이 좋습니다.",
+    "회사 내부 규정에 따라 휴일수당 지급 방식이 다를 수 있으므로, 해당 내용을 확인하시기 바랍니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "노무비명세서는 직접 입력할 수 없습니다. 일용근로자계약서관리 메뉴를 통해 계약서를 작성해야 합니다.",
-    "출퇴근관리 메뉴에서 근로자의 출역내역을 입력해야 시스템이 노무비를 자동 계산합니다."
+    "노무비 명세서는 직접 입력하실 수 없으며, 시스템을 통해 자동 계산됩니다.",
+    "일용근로자 계약서 및 출퇴근 내역을 정확히 입력해야 정확한 노무비가 산출됩니다."
   ],
   "examples": [
     {
-      "scenario": "주휴수당 포함 계산 예시:  주 40시간 근무 계약을 맺은 근로자가 1주일간 40시간 근무했을 경우",
-      "result_a": "기본급 + 연장수당 + 야간수당 + 휴일수당 + 주휴수당(주 40시간 근무 시 적용)이 계산됩니다.",
-      "result_b": "소득세 등 원천징수액이 자동으로 계산되어 명세서에 표시됩니다."
+      "scenario": "일용근로자와 계약을 체결하고, 근무 시간을 입력했을 경우 (주휴수당 포함)",
+      "result_a": "시스템에서 계약서에 명시된 임금과 입력된 근무 시간을 바탕으로 기본 수당, 연장 수당, 야간 수당, 휴일 수당, 주휴 수당(주 1회 근무 시 해당)을 자동으로 계산합니다.",
+      "result_b": "계산된 노무비에는 소득세 등 원천징수 금액이 포함되어 명세서에 반영됩니다."
     },
     {
-      "scenario": "주휴수당 미포함 계산 예시: 주 40시간 근무 계약을 맺은 근로자가 1주일간 30시간 근무했을 경우",
-      "result_c": "기본급(30시간분) + 연장수당(해당 시) + 야간수당(해당 시) + 휴일수당(해당 시)만 계산되고 주휴수당은 포함되지 않습니다. 소득세 등 원천징수액도 계산됩니다."
-    },
-    {
-      "scenario": "수정 필요 시 예시: 노무비명세서 금액을 잘못 입력했을 경우",
-      "result_a": "노무비명세서 상세화면에서 금액을 클릭하여 수정 가능합니다.",
-      "result_b": "금액 수정 시 수정 사유를 반드시 입력해야 합니다. 사유는 소명자료로 사용됩니다."
+      "scenario": "입력된 노무비에 오류가 있어 수정이 필요한 경우",
+      "result_c": "노무비 명세서 상세 화면에서 금액을 클릭하여 '노무비 명세서 금액' 팝업창을 통해 수정하실 수 있습니다.  수정 시에는 반드시 수정 사유를 입력해주셔야 하며, 이는 추후 소명 자료로 사용됩니다."
     }
   ],
   "cautions": [
-    "노무비명세서 금액 수정 시 사유를 반드시 입력해야 합니다.",
-    "계약서 정보와 출퇴근 내역이 정확해야 정확한 노무비 계산이 가능합니다."
+    "일용근로자 계약서와 출퇴근 관리에 입력된 정보가 정확해야 정확한 노무비 계산이 가능합니다. 잘못된 정보 입력은 노무비 오류로 이어질 수 있습니다.",
+    "노무비 명세서 금액을 수정할 경우, 반드시 수정 사유를 기재하시어 향후 발생 가능한 문제에 대비해주시기 바랍니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청 버튼을 클릭합니다.",
-    "사업 검색 후 연결 신청을 합니다."
+    "권한관리 &gt; 사업연결/등록신청 메뉴를 통해 사업 연결 신청을 하실 수 있습니다.",
+    "사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청 버튼을 클릭하시면 됩니다."
   ],
   "examples": [
     {
-      "scenario": "정확한 사업명을 알고 있고, 사업 상태가 '전체' 또는 '완료'인 경우",
-      "result_a": "사업 검색 결과가 나타나며, 체크박스를 선택하고 사업 연결 신청을 할 수 있습니다.",
-      "result_b": "사업 연결이 성공적으로 완료됩니다."
+      "scenario": "정확한 사업명을 입력했는데 사업 검색이 되지 않는 경우",
+      "result_a": "사업명이 비슷한 경우가 많으므로 사업명을 다시 한번 정확하게 입력해 주시기 바랍니다.",
+      "result_b": "조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 사업 상태가 종료된 경우일 수 있습니다.  사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색해 보시기 바랍니다."
     },
     {
-      "scenario": "사업명을 정확하게 모르거나, 사업 상태가 '종료'인 경우(공기연장 후 OnePMIS에서 공기연장 처리가 안 된 경우)",
-      "result_c": "사업 검색 결과가 나타나지 않을 수 있습니다. 사업명을 정확히 입력하거나, 사업 상태를 '전체' 또는 '완료'로 변경하여 검색해야 합니다. 발주처 사용자는 사업 연결 후 공기연장 처리를 반드시 해야 합니다."
+      "scenario": "발주처가 사업에 연결되어 있지 않은 경우 시공사 또는 건설사업관리자가 사업 연결 신청을 할 수 없는 경우",
+      "result_c": "발주처 담당자께서는 본인의 담당 사업에 항상 연결되어 있는지 확인해 주시고, 연결이 되어있지 않다면 사업 연결을 진행해 주시기 바랍니다.  연결 후에는 공기연장 처리를 꼭 해주셔야 합니다."
     }
   ],
   "cautions": [
-    "시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업 연결 신청을 할 수 없습니다.",
-    "사업명을 정확하게 입력해야 검색 결과가 정확하게 나타납니다. 사업명이 유사한 경우가 많으므로 주의해야 합니다.",
-    "공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료로 변경되어 검색되지 않을 수 있습니다. 발주처는 사업 연결 후 공기연장 처리를 꼭 해야 합니다."
+    "사업명을 정확하게 입력하는 것이 사업 연결 신청에 매우 중요합니다.",
+    "조달청 공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료될 수 있으므로 발주처 담당자분들께서는 공기연장 처리를 꼭 해주시기 바랍니다."
   ]
 }</t>
   </si>
   <si>
     <t>[
-  "비밀번호",
-  "로그인",
   "비밀번호 찾기",
-  "본인인증",
-  "휴대폰",
-  "신용카드",
-  "아이핀"
+  "비밀번호 재설정",
+  "본인인증"
 ]</t>
   </si>
   <si>
@@ -254,17 +237,18 @@
   "연장수당",
   "연장근무",
   "초과근무",
-  "주간근무시간",
-  "일일근무시간"
+  "근무시간",
+  "40시간",
+  "8시간"
 ]</t>
   </si>
   <si>
     <t>[
   "주휴수당",
   "소정근로일",
-  "계약",
+  "계약일",
   "개근",
-  "주7일"
+  "근로계약서"
 ]</t>
   </si>
   <si>
@@ -272,32 +256,26 @@
   "휴일수당",
   "공휴일",
   "근로자의 날",
-  "임시공휴일",
-  "대체공휴일",
-  "근무",
+  "휴일근무",
   "수당"
 ]</t>
   </si>
   <si>
     <t>[
-  "노무비명세서",
-  "일용근로자계약서",
-  "출퇴근관리",
-  "주휴수당",
-  "원천징수"
+  "노무비 명세서",
+  "일용근로자",
+  "계약서",
+  "출퇴근 관리",
+  "수당 계산"
 ]</t>
   </si>
   <si>
     <t>[
   "사업연결",
-  "사업 검색",
+  "OnePMIS",
   "권한관리",
-  "등록신청",
   "공기연장",
-  "OnePMIS",
-  "발주처",
-  "시공사",
-  "건설사업관리자"
+  "조달청"
 ]</t>
   </si>
 </sst>

--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -47,135 +47,135 @@
   </si>
   <si>
     <t>[
-  "비밀번호를 분실했을 경우 어떻게 해야 하나요?",
-  "혹시 비밀번호를 잊어버렸는데, 다시 찾는 방법을 알려주시겠습니까?",
-  "비밀번호를 찾는 방법에 대해 안내 부탁드립니다."
-]</t>
-  </si>
-  <si>
-    <t>[
-  "연장근무 수당은 어떤 경우에 지급되나요?",
-  "연장근무에 대한 수당은 어떠한 조건을 충족해야 지급받을 수 있을까요?",
-  "주간 근무시간과 일일 근무시간을 초과했을 때, 연장근무 수당이 발생하는 조건이 무엇인가요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "주휴수당이 발생하는 조건에 대해 자세히 설명해 주시겠습니까?",
-  "주휴수당 지급에 관한 자세한 기준은 무엇인가요?",
+  "혹시 비밀번호를 분실했을 경우에는 어떻게 해야 할까요?",
+  "비밀번호를 잊어버렸는데, 다시 찾는 방법을 알려주시겠습니까?",
+  "만약 비밀번호를 기억나지 않으면 어떤 절차를 거쳐야 하나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장 근무 수당은 어떤 경우에 지급받을 수 있을까요?",
+  "연장 수당이 발생하는 조건에 대해 자세히 알려주시겠습니까?",
+  "어떤 상황에서 연장 근무에 대한 수당을 받을 수 있나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당이 발생하는 조건에 대해 자세히 알고 싶습니다.",
+  "주휴수당 지급에 관한 조건을 설명해 주시겠습니까?",
   "어떤 경우에 주휴수당을 받을 수 있는지 알려주세요."
 ]</t>
   </si>
   <si>
     <t>[
-  "휴일 근무 시 수당 지급 기준은 어떻게 되나요?",
-  "휴일근무 수당은 어떤 경우에 발생하나요?",
-  "휴일 수당과 관련하여 자세한 내용을 알고 싶습니다."
+  "휴일 근무에 대한 수당은 어떻게 지급되나요?",
+  "휴일 근무 시 수당 지급 기준을 알고 싶습니다.",
+  "공휴일에 일했을 때 받는 수당에 대해 자세히 설명해주시겠습니까?"
 ]</t>
   </si>
   <si>
     <t>[
   "노무비 명세서 작성 방법을 알려주시겠습니까?",
-  "노무비 명세서는 어떻게 작성해야 하나요?",
-  "노무비 명세서를 작성하는 절차를 자세히 설명해주시면 감사하겠습니다."
+  "노무비 명세서를 어떻게 작성하면 될까요?",
+  "노무비 명세서 작성에 대해 자세히 설명해 주시면 감사하겠습니다."
 ]</t>
   </si>
   <si>
     <t>[
   "사업 연결 방법을 알려주시겠습니까?",
-  "사업을 어떻게 연결할 수 있을까요?",
-  "사업 연결 절차에 대해 자세히 설명해 주시면 감사하겠습니다."
+  "어떻게 하면 사업을 연결할 수 있을까요?",
+  "사업 연결 절차에 대해 자세히 설명해주시면 감사하겠습니다."
 ]</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "로그인 화면에서 '비밀번호 찾기' 기능을 이용해주세요.",
-    "본인 확인 절차를 거쳐야 비밀번호를 재설정할 수 있습니다."
+    "로그인 화면에서 비밀번호 찾기 기능을 이용하실 수 있습니다.",
+    "본인 확인 절차를 거치셔야 비밀번호를 재설정하실 수 있습니다."
   ],
   "examples": [
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있는 경우",
-      "result_a": "휴대전화로 인증번호가 발송되며, 해당 번호를 입력하시면 비밀번호를 재설정할 수 있습니다.",
-      "result_b": "인증번호를 입력 후 새로운 비밀번호를 설정하시면 됩니다.  비밀번호는 안전하게 관리하시는 것이 좋습니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있다면, 로그인 화면의 비밀번호 찾기를 통해 휴대전화로 인증번호를 받으실 수 있습니다.",
+      "result_a": "인증번호를 입력하시면 새로운 비밀번호를 설정하실 수 있습니다.",
+      "result_b": "새로운 비밀번호 설정 후에는 반드시 안전한 비밀번호를 사용하시는 것을 권장 드립니다."
     },
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있지 않지만, 신용카드 정보가 등록되어 있는 경우",
-      "result_c": "등록된 신용카드 정보를 이용하여 본인 인증을 진행하신 후, 새로운 비밀번호를 설정하실 수 있습니다.  안전한 비밀번호를 설정하시는 것을 권장드립니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있지 않지만, 신용카드 정보가 등록되어 있다면, 신용카드 정보를 이용하여 본인 인증을 진행하실 수 있습니다.",
+      "result_c": "신용카드 본인 인증 후에는 새로운 비밀번호를 설정하실 수 있습니다.  안전한 비밀번호를 설정하시고,  추후 비밀번호 분실을 방지하기 위해 안전한 장소에 비밀번호를 기록해두시는 것을 추천드립니다."
     }
   ],
   "cautions": [
-    "비밀번호를 재설정할 때는 안전하고 기억하기 쉬운 비밀번호를 설정하시는 것이 좋습니다.",
-    "비밀번호는 다른 사람에게 알려주지 마시고 안전하게 보관해주세요."
+    "비밀번호는 타인에게 알려주지 않도록 주의하시기 바랍니다.",
+    "비밀번호를 분실했을 경우, 개인정보 유출 방지를 위해 신속하게 비밀번호를 재설정하는 것이 중요합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "주당 근무시간이 40시간을 초과하는 경우 연장수당이 발생합니다.",
-    "하루 8시간을 초과하여 근무하는 경우 연장수당이 발생합니다."
+    "주간 근무 시간이 40시간을 초과하는 경우 연장 수당이 발생합니다.",
+    "일일 근무 시간이 8시간을 초과하는 경우에도 연장 수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무하셨다면,",
-      "result_a": "주 40시간을 초과한 8시간에 대해 연장수당이 지급됩니다.",
-      "result_b": "일일 8시간 근무를 초과한 시간은 없으므로, 이 부분에 대한 추가적인 연장수당은 없습니다."
+      "scenario": "월요일부터 토요일까지 매일 8시간씩 근무하셨다고 가정해 보겠습니다. 총 근무 시간은 48시간이 됩니다.",
+      "result_a": "이 경우, 주간 40시간을 초과한 8시간에 대해 연장 수당이 지급됩니다.",
+      "result_b": "일일 8시간을 초과한 시간은 없으므로, 이 부분에 대한 추가 수당은 없습니다."
     },
     {
-      "scenario": "월요일부터 금요일까지는 하루 8시간씩 근무하고, 토요일에 4시간 근무하셨다면,",
-      "result_c": "주 40시간을 초과한 4시간에 대해 연장수당이 지급됩니다."
+      "scenario": "어느 날 10시간 근무하셨다면, 8시간을 초과한 2시간에 대해 연장 수당이 지급됩니다.",
+      "result_c": "해당 2시간에 대해 연장 수당이 지급될 것입니다."
     }
   ],
   "cautions": [
-    "연장근무 수당 적용 기준은 회사 내규 및 관련 법률에 따라 다를 수 있습니다. 자세한 사항은 회사 인사부서에 문의해주시기 바랍니다.",
-    "연장근무 발생 시, 반드시 근무시간을 정확히 기록하고, 회사에 신고하여야 연장수당을 정확하게 지급받을 수 있습니다."
+    "연장 수당 지급 기준은 회사 내규 및 관련 법률에 따라 다를 수 있으므로, 자세한 사항은 회사에 문의하시는 것이 좋습니다.",
+    "연장 근무 시간에 대한 정확한 기록을 유지하는 것이 중요합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "근로자분께서 계약서에 명시된 소정 근로일에 모두 출근하셨는지 확인해야 합니다.",
-    "해당 주의 모든 계약일에 대한 근무가 완료되었는지 확인해야 합니다.  즉, 계약상 근무일이 7일이라면 7일 모두 근무해야 주휴수당이 발생합니다."
+    "근로자분께서 계약서에 명시된 소정 근로일을 모두 근무하셔야 합니다.",
+    "해당 주의 모든 계약일에 대한 근무가 완료되어야 주휴수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A씨와 B씨가 있습니다. A씨는 월요일부터 금요일까지(5일) 계약되어 있고, B씨는 월요일부터 일요일까지(7일) 계약되어 있습니다. 두 분 모두 월요일부터 금요일까지 5일간 근무하셨습니다.",
-      "result_a": "A씨의 경우, 계약 기간이 5일이므로 주휴수당이 발생하지 않습니다.",
-      "result_b": "B씨의 경우, 계약 기간이 7일이고 해당 주의 모든 계약일에 대한 근무를 완료하셨으므로 주휴수당이 발생합니다."
+      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있습니다. A는 월요일부터 금요일까지 5일 계약이고, B는 월요일부터 일요일까지 7일 계약입니다.",
+      "result_a": "A님은 주중 5일만 계약되어 있으므로 주휴수당이 발생하지 않습니다.",
+      "result_b": "B님은 해당 주의 모든 계약일에 대한 근무를 완료하셨으므로 주휴수당이 발생합니다."
     },
     {
-      "scenario": "C씨는 토요일과 일요일을 제외한 월요일부터 금요일까지 근무하는 계약을 맺었습니다. 하지만 월요일에 개인적인 사정으로 결근하였습니다.",
-      "result_c": "C씨는 소정 근로일에 모두 출근하지 않았으므로 주휴수당이 발생하지 않습니다."
+      "scenario": "C님은 토요일과 일요일에도 근무하는 7일 계약 근로자이지만, 금요일에 개인적인 사유로 결근하였습니다.",
+      "result_c": "C님은 모든 소정 근로일에 근무하지 않으셨으므로 주휴수당이 발생하지 않습니다."
     }
   ],
   "cautions": [
-    "주휴수당 발생 여부는 근로계약서에 명시된 내용을 기준으로 판단해야 합니다. 계약서에 명시되지 않았다면, 회사 내부 규정을 확인하시는 것이 좋습니다.",
-    "소정근로일과 주휴수당 지급에 대한 자세한 내용은 고용노동부 또는 관련 법률을 참고하시는 것이 좋습니다."
+    "계약서 상의 소정 근로일과 실제 근무일을 반드시 확인하셔야 합니다.",
+    "회사 내부 규정 및 관련 법률을 참고하시어 주휴수당 지급 여부를 정확히 확인하시는 것이 좋습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "계약서에 명시된 휴일, 공휴일(임시공휴일 및 대체공휴일 포함), 근로자의 날에 근무하신 경우 휴일수당이 발생합니다.",
-    "휴일수당은 기본 시급 또는 일급의 50%를 가산하여 지급됩니다."
+    "휴일수당은 회사와 근로자 간의 계약서에 명시된 휴일, 그리고 법적으로 정해진 공휴일(임시공휴일 및 대체공휴일 포함), 근로자의 날에 근무하신 경우 발생합니다.",
+    "휴일수당은 일반적인 일일 근무 수당에 기본 수당의 50%가 추가로 지급됩니다."
   ],
   "examples": [
     {
-      "scenario": "근로계약서 상의 휴일인 토요일에 근무하셨고, 이날 공휴일은 아니었습니다. 또한, 근로자의 날에도 근무하셨습니다.",
-      "result_a": "토요일 근무에 대해서는 계약서에 명시된 휴일 근무 수당이 지급됩니다.",
-      "result_b": "근로자의 날 근무에 대해서도 휴일 수당이 지급됩니다."
+      "scenario": "근로자 김씨가 1월 1일(신정, 공휴일)에 8시간 근무하였습니다. 김씨의 일일 기본 임금이 10만원이라고 가정했을 때, 김씨는 어떤 수당을 받게 될까요?",
+      "result_a": "김씨는 10만원(기본 임금) + 5만원(기본 임금의 50%에 해당하는 휴일수당) = 총 15만원의 임금을 받게 됩니다.",
+      "result_b": "이 경우, 김씨는 휴일 근무에 대한 수당으로 5만원을 추가로 받게 되는 것입니다."
     },
     {
-      "scenario": "설날(공휴일)에 근무하셨습니다.",
-      "result_c": "설날 근무에 대해 휴일 수당이 지급됩니다."
+      "scenario": "근로자 이씨는 회사 내규 상 유급휴일인 토요일에 근무를 하였습니다. 이씨의 일일 기본 임금이 12만원이라고 가정했을 때, 수당은 어떻게 지급될까요?",
+      "result_c": "이씨의 경우, 회사 내규에 따라 지정된 유급휴일에 근무하였으므로, 기본 임금 12만원과 별도의 휴일수당은 지급되지 않습니다.  회사 내규에 따라 별도의 휴일근무 수당 규정이 있는지 확인하시는 것이 좋습니다."
     }
   ],
   "cautions": [
-    "휴일수당 지급 여부 및 기준은 근로계약서 내용을 우선적으로 확인하시는 것이 좋습니다.",
-    "회사 내부 규정에 따라 휴일수당 지급 방식이 다를 수 있으므로, 해당 내용을 확인하시기 바랍니다."
+    "계약서에 명시된 휴일 외의 날짜에 대한 휴일수당 지급 여부는 회사 내규 및 노동법에 따라 달라질 수 있으므로,  회사 담당자에게 문의하시는 것이 좋습니다.",
+    "휴일수당 지급에 대한 자세한 내용은 고용노동부 또는 관련 기관의 자료를 참고하시면 도움이 될 것입니다."
   ]
 }</t>
   </si>
@@ -183,53 +183,64 @@
     <t>{
   "basic_rules": [
     "노무비 명세서는 직접 입력하실 수 없으며, 시스템을 통해 자동 계산됩니다.",
-    "일용근로자 계약서 및 출퇴근 내역을 정확히 입력해야 정확한 노무비가 산출됩니다."
+    "일용근로자계약서관리 메뉴에서 계약서를 작성하고, 출퇴근관리 메뉴에서 근무 내역을 입력하셔야 합니다."
   ],
   "examples": [
     {
-      "scenario": "일용근로자와 계약을 체결하고, 근무 시간을 입력했을 경우 (주휴수당 포함)",
-      "result_a": "시스템에서 계약서에 명시된 임금과 입력된 근무 시간을 바탕으로 기본 수당, 연장 수당, 야간 수당, 휴일 수당, 주휴 수당(주 1회 근무 시 해당)을 자동으로 계산합니다.",
-      "result_b": "계산된 노무비에는 소득세 등 원천징수 금액이 포함되어 명세서에 반영됩니다."
+      "scenario": "일용직 근로자와 계약을 체결하고, 근무 시간을 입력한 경우 주휴수당을 포함한 노무비 명세서를 생성하고 싶습니다. 근로자는 주 5일 근무(월요일~금요일)에 주휴수당을 받을 자격이 있으며, 실제 근무일수는 5일입니다.",
+      "result_a": "시스템에서 계약서에 명시된 임금과 실제 근무 시간을 바탕으로 기본 수당을 계산합니다.",
+      "result_b": "주 5일 근무 시 주휴수당이 자동으로 계산되어 노무비 명세서에 포함됩니다. 만약 주휴수당 적용에 대한 계약 조건이 명시되어 있지 않다면,  해당 부분을 계약서에 명확히 기재하여야 주휴수당이 정확히 계산됩니다."
     },
     {
-      "scenario": "입력된 노무비에 오류가 있어 수정이 필요한 경우",
-      "result_c": "노무비 명세서 상세 화면에서 금액을 클릭하여 '노무비 명세서 금액' 팝업창을 통해 수정하실 수 있습니다.  수정 시에는 반드시 수정 사유를 입력해주셔야 하며, 이는 추후 소명 자료로 사용됩니다."
+      "scenario": "주말에도 근무한 근로자의 노무비 명세서를 작성해야 합니다. 토요일에 8시간, 일요일에 4시간 근무하였습니다.",
+      "result_c": "시스템은 입력된 근무 시간을 바탕으로 기본 수당, 연장 수당(토요일, 일요일 근무시간에 따라 적용), 야간 수당(야간 근무가 있을 경우), 휴일 수당(토요일, 일요일 근무에 대한 수당)을 계산하여 노무비 명세서를 생성합니다."
     }
   ],
   "cautions": [
-    "일용근로자 계약서와 출퇴근 관리에 입력된 정보가 정확해야 정확한 노무비 계산이 가능합니다. 잘못된 정보 입력은 노무비 오류로 이어질 수 있습니다.",
-    "노무비 명세서 금액을 수정할 경우, 반드시 수정 사유를 기재하시어 향후 발생 가능한 문제에 대비해주시기 바랍니다."
+    "노무비 명세서 금액 수정이 필요한 경우, 반드시 수정 사유를 입력해주세요. 수정 사유는 추후 소명 자료로 활용됩니다.",
+    "모든 근무 시간과 계약 조건을 정확하게 입력하시는 것이 정확한 노무비 계산에 중요합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "권한관리 &gt; 사업연결/등록신청 메뉴를 통해 사업 연결 신청을 하실 수 있습니다.",
-    "사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청 버튼을 클릭하시면 됩니다."
+    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업을 검색하신 후, 원하시는 사업명 앞의 체크박스를 체크하시면 됩니다.",
+    "체크 후 사업연결 신청 버튼을 클릭하시면 사업 연결 신청이 완료됩니다."
   ],
   "examples": [
     {
-      "scenario": "정확한 사업명을 입력했는데 사업 검색이 되지 않는 경우",
-      "result_a": "사업명이 비슷한 경우가 많으므로 사업명을 다시 한번 정확하게 입력해 주시기 바랍니다.",
-      "result_b": "조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 사업 상태가 종료된 경우일 수 있습니다.  사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색해 보시기 바랍니다."
+      "scenario": "사업명을 정확히 입력했으나 사업 검색이 되지 않는 경우, 시공사 또는 건설사업관리자는 발주처에 사업 연결 여부를 확인해야 합니다. 발주처의 사업 연결 상태를 확인하시고, 연결되지 않았다면 발주처 담당자에게 문의하여 사업 연결을 요청해 주시기 바랍니다.",
+      "result_a": "발주처가 이미 사업에 연결되어 있는 경우, 사업명을 다시 한번 정확하게 입력하여 검색해 보시기 바랍니다. 만약 정확한 사업명을 입력했는데도 검색이 되지 않는다면, 시스템 관리자에게 문의하여 도움을 받으실 수 있습니다.",
+      "result_b": "발주처가 사업에 연결되어 있지 않은 경우, 발주처 담당자에게 사업 연결을 요청하시고 연결이 완료된 후 다시 시도해 주시기 바랍니다."
     },
     {
-      "scenario": "발주처가 사업에 연결되어 있지 않은 경우 시공사 또는 건설사업관리자가 사업 연결 신청을 할 수 없는 경우",
-      "result_c": "발주처 담당자께서는 본인의 담당 사업에 항상 연결되어 있는지 확인해 주시고, 연결이 되어있지 않다면 사업 연결을 진행해 주시기 바랍니다.  연결 후에는 공기연장 처리를 꼭 해주셔야 합니다."
+      "scenario": "조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 사업 상태가 종료된 경우",
+      "result_c": "사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색하신 후 사업 연결을 진행하시고, 발주처 사용자는 사업 연결 후 반드시 공기연장 처리를 해주셔야 합니다."
     }
   ],
   "cautions": [
-    "사업명을 정확하게 입력하는 것이 사업 연결 신청에 매우 중요합니다.",
-    "조달청 공기연장 후 OnePMIS에서 공기연장 처리를 하지 않으면 사업 상태가 종료될 수 있으므로 발주처 담당자분들께서는 공기연장 처리를 꼭 해주시기 바랍니다."
+    "사업 검색이 되지 않는 경우, 사업명의 정확한 입력 여부를 다시 한번 확인해주세요. 사업명이 유사한 경우가 많으므로 정확한 사업명을 입력하시는 것이 중요합니다.",
+    "시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업 연결 신청을 할 수 없습니다. 발주처는 본인의 담당 사업에 항상 연결되어 있는지 확인해주시기 바랍니다."
   ]
 }</t>
   </si>
   <si>
     <t>[
-  "비밀번호 찾기",
-  "비밀번호 재설정",
-  "본인인증"
+  "비밀번호",
+  "비밀번호찾기",
+  "패스워드",
+  "본인확인",
+  "휴대폰",
+  "신용카드",
+  "아이핀",
+  "인증",
+  "재설정",
+  "분실",
+  "잊어버림",
+  "비밀 번호",
+  "패스워드 찾기",
+  "본인 인증"
 ]</t>
   </si>
   <si>
@@ -237,7 +248,16 @@
   "연장수당",
   "연장근무",
   "초과근무",
-  "근무시간",
+  "근로시간",
+  "일꾼",
+  "근로자",
+  "주휴수당",
+  "주휴 수당",
+  "휴일수당",
+  "쉬는날",
+  "휴일",
+  "퇴직금",
+  "퇴직금여",
   "40시간",
   "8시간"
 ]</t>
@@ -245,37 +265,83 @@
   <si>
     <t>[
   "주휴수당",
+  "주휴 수당",
+  "근로자",
+  "일꾼",
   "소정근로일",
   "계약일",
   "개근",
-  "근로계약서"
-]</t>
-  </si>
-  <si>
-    <t>[
+  "휴일",
+  "쉬는 날",
+  "주휴일",
   "휴일수당",
+  "소정근무일수",
+  "근무일수"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일수당",
+  "휴일",
+  "쉬는날",
   "공휴일",
-  "근로자의 날",
-  "휴일근무",
-  "수당"
-]</t>
-  </si>
-  <si>
-    <t>[
+  "근로자",
+  "일꾼",
+  "주휴수당",
+  "주휴 수당",
+  "임시공휴일",
+  "대체공휴일",
+  "근로자의날",
+  "수당",
+  "유급휴일",
+  "계약서"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "노무비명세서",
   "노무비 명세서",
   "일용근로자",
+  "일꾼",
   "계약서",
-  "출퇴근 관리",
-  "수당 계산"
+  "근무시간",
+  "기본수당",
+  "연장수당",
+  "야간수당",
+  "휴일수당",
+  "주휴수당",
+  "주휴 수당",
+  "연차수당",
+  "원천징수",
+  "소득세",
+  "퇴직금",
+  "퇴직금여",
+  "출퇴근",
+  "쉬는날"
 ]</t>
   </si>
   <si>
     <t>[
   "사업연결",
+  "사업 연결",
+  "연결",
+  "권한관리",
+  "등록신청",
+  "사업검색",
+  "사업 명",
+  "체크박스",
+  "신청 버튼",
+  "공기연장",
+  "공기 연장",
+  "준공예정일",
+  "준공 예정일",
+  "발주처",
+  "시공사",
+  "건설사업관리자",
   "OnePMIS",
-  "권한관리",
-  "공기연장",
-  "조달청"
+  "상태",
+  "완료",
+  "전체"
 ]</t>
   </si>
 </sst>

--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -47,37 +47,37 @@
   </si>
   <si>
     <t>[
-  "혹시 비밀번호를 분실했을 경우에는 어떻게 해야 할까요?",
-  "비밀번호를 잊어버렸는데, 다시 찾는 방법을 알려주시겠습니까?",
-  "만약 비밀번호를 기억나지 않으면 어떤 절차를 거쳐야 하나요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "연장 근무 수당은 어떤 경우에 지급받을 수 있을까요?",
-  "연장 수당이 발생하는 조건에 대해 자세히 알려주시겠습니까?",
-  "어떤 상황에서 연장 근무에 대한 수당을 받을 수 있나요?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "주휴수당이 발생하는 조건에 대해 자세히 알고 싶습니다.",
-  "주휴수당 지급에 관한 조건을 설명해 주시겠습니까?",
-  "어떤 경우에 주휴수당을 받을 수 있는지 알려주세요."
-]</t>
-  </si>
-  <si>
-    <t>[
-  "휴일 근무에 대한 수당은 어떻게 지급되나요?",
-  "휴일 근무 시 수당 지급 기준을 알고 싶습니다.",
-  "공휴일에 일했을 때 받는 수당에 대해 자세히 설명해주시겠습니까?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "노무비 명세서 작성 방법을 알려주시겠습니까?",
-  "노무비 명세서를 어떻게 작성하면 될까요?",
-  "노무비 명세서 작성에 대해 자세히 설명해 주시면 감사하겠습니다."
+  "비밀번호를 잊어버렸을 경우 어떻게 해야 하나요?",
+  "혹시 비밀번호를 분실했는데, 어떻게 다시 찾을 수 있을까요?",
+  "로그인 비밀번호가 생각나지 않는데, 비밀번호 찾는 방법을 알려주시겠습니까?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장 근무 수당은 어떤 경우에 지급받을 수 있나요?",
+  "연장 근무에 대한 수당은 어떠한 조건을 충족해야 지급되나요?",
+  "초과 근무 시 발생하는 수당에 대해 자세히 알려주시겠습니까?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당이 발생하는 조건에 대해 자세히 설명해주시겠습니까?",
+  "주휴수당 지급과 관련된 기준은 무엇인가요?",
+  "어떤 경우에 주휴수당을 받을 수 있나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일 근무 시 수당은 어떻게 지급되나요?",
+  "휴일 수당은 어떤 경우에 발생하나요?",
+  "공휴일에 일했을 때 받는 수당에 대해 알고 싶습니다."
+]</t>
+  </si>
+  <si>
+    <t>[
+  "노무비명세서 작성 방법을 알려주시겠습니까?",
+  "노무비명세서는 어떻게 작성해야 하나요?",
+  "노무비명세서를 작성하는 절차에 대해 자세히 설명해 주시겠습니까?"
 ]</t>
   </si>
   <si>
@@ -91,156 +91,155 @@
     <t>{
   "basic_rules": [
     "로그인 화면에서 비밀번호 찾기 기능을 이용하실 수 있습니다.",
-    "본인 확인 절차를 거치셔야 비밀번호를 재설정하실 수 있습니다."
+    "본인 확인 절차를 거쳐야 비밀번호를 재설정하실 수 있습니다."
   ],
   "examples": [
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있다면, 로그인 화면의 비밀번호 찾기를 통해 휴대전화로 인증번호를 받으실 수 있습니다.",
-      "result_a": "인증번호를 입력하시면 새로운 비밀번호를 설정하실 수 있습니다.",
-      "result_b": "새로운 비밀번호 설정 후에는 반드시 안전한 비밀번호를 사용하시는 것을 권장 드립니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있다고 가정해 보겠습니다.",
+      "result_a": "로그인 화면의 비밀번호 찾기를 클릭하신 후, 휴대전화 번호를 입력하시면 인증번호가 발송됩니다.",
+      "result_b": "인증번호를 입력하시고 새로운 비밀번호를 설정하시면 비밀번호 변경이 완료됩니다."
     },
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있지 않지만, 신용카드 정보가 등록되어 있다면, 신용카드 정보를 이용하여 본인 인증을 진행하실 수 있습니다.",
-      "result_c": "신용카드 본인 인증 후에는 새로운 비밀번호를 설정하실 수 있습니다.  안전한 비밀번호를 설정하시고,  추후 비밀번호 분실을 방지하기 위해 안전한 장소에 비밀번호를 기록해두시는 것을 추천드립니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호는 등록되어 있지 않지만, 신용카드 정보가 등록되어 있다고 가정해 보겠습니다.",
+      "result_c": "로그인 화면의 비밀번호 찾기를 클릭하신 후, 신용카드 정보를 이용하여 본인 확인 절차를 거치신 후 새로운 비밀번호를 설정하실 수 있습니다."
     }
   ],
   "cautions": [
-    "비밀번호는 타인에게 알려주지 않도록 주의하시기 바랍니다.",
-    "비밀번호를 분실했을 경우, 개인정보 유출 방지를 위해 신속하게 비밀번호를 재설정하는 것이 중요합니다."
+    "본인 확인 절차에 필요한 정보를 정확하게 입력해주셔야 합니다.",
+    "비밀번호는 안전하게 관리하시고, 정기적으로 변경해주시는 것이 좋습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "주간 근무 시간이 40시간을 초과하는 경우 연장 수당이 발생합니다.",
-    "일일 근무 시간이 8시간을 초과하는 경우에도 연장 수당이 발생합니다."
+    "주 40시간을 초과하여 근무하신 경우 연장 근무 수당이 발생합니다.",
+    "1일에 8시간을 초과하여 근무하신 경우 연장 근무 수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 토요일까지 매일 8시간씩 근무하셨다고 가정해 보겠습니다. 총 근무 시간은 48시간이 됩니다.",
-      "result_a": "이 경우, 주간 40시간을 초과한 8시간에 대해 연장 수당이 지급됩니다.",
-      "result_b": "일일 8시간을 초과한 시간은 없으므로, 이 부분에 대한 추가 수당은 없습니다."
+      "scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무하셨다면,",
+      "result_a": "주 40시간을 초과한 8시간에 대해 연장 근무 수당이 지급됩니다.",
+      "result_b": "일일 8시간을 초과한 시간은 없으므로, 이 부분에 대한 연장 수당은 없습니다."
     },
     {
-      "scenario": "어느 날 10시간 근무하셨다면, 8시간을 초과한 2시간에 대해 연장 수당이 지급됩니다.",
-      "result_c": "해당 2시간에 대해 연장 수당이 지급될 것입니다."
+      "scenario": "월요일부터 금요일까지는 하루 8시간씩 근무하고, 토요일에 4시간 추가 근무를 하셨다면,",
+      "result_c": "주 40시간을 초과한 4시간에 대해 연장 근무 수당이 지급됩니다."
     }
   ],
   "cautions": [
-    "연장 수당 지급 기준은 회사 내규 및 관련 법률에 따라 다를 수 있으므로, 자세한 사항은 회사에 문의하시는 것이 좋습니다.",
-    "연장 근무 시간에 대한 정확한 기록을 유지하는 것이 중요합니다."
+    "연장 근무 수당의 계산 방식은 회사 내규에 따라 다를 수 있으므로, 정확한 내용은 회사에 문의하시는 것이 좋습니다.",
+    "연장 근무 시간 기록은 정확하게 관리해야 수당 지급에 문제가 발생하지 않습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "근로자분께서 계약서에 명시된 소정 근로일을 모두 근무하셔야 합니다.",
-    "해당 주의 모든 계약일에 대한 근무가 완료되어야 주휴수당이 발생합니다."
+    "계약서 상에 명시된 소정 근로일을 모두 근무하셔야 합니다.",
+    "해당 주의 모든 근로 계약 기간이 포함되어야 주휴수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있습니다. A는 월요일부터 금요일까지 5일 계약이고, B는 월요일부터 일요일까지 7일 계약입니다.",
-      "result_a": "A님은 주중 5일만 계약되어 있으므로 주휴수당이 발생하지 않습니다.",
-      "result_b": "B님은 해당 주의 모든 계약일에 대한 근무를 완료하셨으므로 주휴수당이 발생합니다."
+      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있습니다. A는 월요일부터 금요일까지(5일)의 계약을, B는 월요일부터 일요일까지(7일)의 계약을 체결했습니다.",
+      "result_a": "A씨의 경우, 주중 5일 계약만 체결되어 주휴수당이 발생하지 않습니다.",
+      "result_b": "B씨의 경우, 일주일 전체(7일) 계약이 체결되었으므로 주휴수당이 발생합니다."
     },
     {
-      "scenario": "C님은 토요일과 일요일에도 근무하는 7일 계약 근로자이지만, 금요일에 개인적인 사유로 결근하였습니다.",
-      "result_c": "C님은 모든 소정 근로일에 근무하지 않으셨으므로 주휴수당이 발생하지 않습니다."
+      "scenario": "C씨는 토요일에도 근무하는 계약을 맺었지만, 토요일에 개인적인 사정으로 결근했습니다.  나머지 근무일은 모두 소정 근로일을 채웠습니다.",
+      "result_c": "C씨는 소정 근로일에 결근하였으므로, 주휴수당이 발생하지 않습니다."
     }
   ],
   "cautions": [
-    "계약서 상의 소정 근로일과 실제 근무일을 반드시 확인하셔야 합니다.",
-    "회사 내부 규정 및 관련 법률을 참고하시어 주휴수당 지급 여부를 정확히 확인하시는 것이 좋습니다."
+    "주휴수당 발생 여부는 근로계약서의 내용을 정확히 확인하셔야 합니다.",
+    "결근이나 지각 등으로 인해 소정 근로일을 모두 채우지 못한 경우에는 주휴수당이 지급되지 않을 수 있습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "휴일수당은 회사와 근로자 간의 계약서에 명시된 휴일, 그리고 법적으로 정해진 공휴일(임시공휴일 및 대체공휴일 포함), 근로자의 날에 근무하신 경우 발생합니다.",
-    "휴일수당은 일반적인 일일 근무 수당에 기본 수당의 50%가 추가로 지급됩니다."
+    "휴일수당은 사용자와 근로자 간의 계약서에 명시된 휴일 및 법정 공휴일(임시공휴일 및 대체공휴일 포함)에 근무하신 경우 발생합니다.",
+    "휴일수당은 일반적으로 기본 시급 또는 일급의 50%를 가산하여 지급됩니다.  정확한 계산 방식은 회사 내규 또는 근로계약서를 참고해주시기 바랍니다."
   ],
   "examples": [
     {
-      "scenario": "근로자 김씨가 1월 1일(신정, 공휴일)에 8시간 근무하였습니다. 김씨의 일일 기본 임금이 10만원이라고 가정했을 때, 김씨는 어떤 수당을 받게 될까요?",
-      "result_a": "김씨는 10만원(기본 임금) + 5만원(기본 임금의 50%에 해당하는 휴일수당) = 총 15만원의 임금을 받게 됩니다.",
-      "result_b": "이 경우, 김씨는 휴일 근무에 대한 수당으로 5만원을 추가로 받게 되는 것입니다."
+      "scenario": "근로자 A씨가 1월 1일(신정)에 8시간 근무하였고, 시급이 10,000원입니다.  근로자 B씨는 같은 날 4시간 근무하였고, 시급은 12,000원입니다.",
+      "result_a": "A씨의 휴일수당은 (10,000원 * 8시간 * 0.5) + (10,000원 * 8시간) = 120,000원 입니다.",
+      "result_b": "B씨의 휴일수당은 (12,000원 * 4시간 * 0.5) + (12,000원 * 4시간) = 60,000원 입니다."
     },
     {
-      "scenario": "근로자 이씨는 회사 내규 상 유급휴일인 토요일에 근무를 하였습니다. 이씨의 일일 기본 임금이 12만원이라고 가정했을 때, 수당은 어떻게 지급될까요?",
-      "result_c": "이씨의 경우, 회사 내규에 따라 지정된 유급휴일에 근무하였으므로, 기본 임금 12만원과 별도의 휴일수당은 지급되지 않습니다.  회사 내규에 따라 별도의 휴일근무 수당 규정이 있는지 확인하시는 것이 좋습니다."
+      "scenario": "근로자 C씨가 주 5일 근무를 하며, 회사 규정에 따른 유급휴일인 토요일에 8시간 근무를 하였고, 시급이 11,000원입니다.",
+      "result_c": "C씨의 휴일수당은 (11,000원 * 8시간 * 0.5) + (11,000원 * 8시간) = 132,000원 입니다."
     }
   ],
   "cautions": [
-    "계약서에 명시된 휴일 외의 날짜에 대한 휴일수당 지급 여부는 회사 내규 및 노동법에 따라 달라질 수 있으므로,  회사 담당자에게 문의하시는 것이 좋습니다.",
-    "휴일수당 지급에 대한 자세한 내용은 고용노동부 또는 관련 기관의 자료를 참고하시면 도움이 될 것입니다."
+    "휴일수당 지급에 대한 자세한 내용은 회사 내규 또는 근로계약서를 꼼꼼히 확인해주시기 바랍니다.",
+    "계약서에 명시되지 않은 휴일 또는 근무에 대한 수당 지급 여부는 회사와 협의가 필요합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "노무비 명세서는 직접 입력하실 수 없으며, 시스템을 통해 자동 계산됩니다.",
-    "일용근로자계약서관리 메뉴에서 계약서를 작성하고, 출퇴근관리 메뉴에서 근무 내역을 입력하셔야 합니다."
+    "노무비명세서는 직접 입력하실 수 없습니다. 시스템을 통해 자동으로 계산됩니다.",
+    "일용근로자계약서를 작성하고 근로자의 출퇴근 내역을 입력하시면 시스템이 노무비를 자동 계산합니다."
   ],
   "examples": [
     {
-      "scenario": "일용직 근로자와 계약을 체결하고, 근무 시간을 입력한 경우 주휴수당을 포함한 노무비 명세서를 생성하고 싶습니다. 근로자는 주 5일 근무(월요일~금요일)에 주휴수당을 받을 자격이 있으며, 실제 근무일수는 5일입니다.",
-      "result_a": "시스템에서 계약서에 명시된 임금과 실제 근무 시간을 바탕으로 기본 수당을 계산합니다.",
-      "result_b": "주 5일 근무 시 주휴수당이 자동으로 계산되어 노무비 명세서에 포함됩니다. 만약 주휴수당 적용에 대한 계약 조건이 명시되어 있지 않다면,  해당 부분을 계약서에 명확히 기재하여야 주휴수당이 정확히 계산됩니다."
+      "scenario": "일용근로자와 계약을 맺고 10일간 근무하였으며, 그 중 2일은 야간근무, 1일은 휴일근무를 하였습니다. 계약서 상의 일일 임금은 10만원입니다.",
+      "result_a": "시스템은 계약서 상의 임금과 근무시간을 바탕으로 기본급(10일*10만원=100만원), 야간수당(2일분), 휴일수당(1일분)을 계산합니다.",
+      "result_b": "계산된 총 노무비와 소득세 등 원천징수 금액이 노무비명세서에 자동으로 표시됩니다."
     },
     {
-      "scenario": "주말에도 근무한 근로자의 노무비 명세서를 작성해야 합니다. 토요일에 8시간, 일요일에 4시간 근무하였습니다.",
-      "result_c": "시스템은 입력된 근무 시간을 바탕으로 기본 수당, 연장 수당(토요일, 일요일 근무시간에 따라 적용), 야간 수당(야간 근무가 있을 경우), 휴일 수당(토요일, 일요일 근무에 대한 수당)을 계산하여 노무비 명세서를 생성합니다."
+      "scenario": "주 5일 근무 계약을 맺은 근로자가 주휴일(토요일)에 휴식을 취했습니다. 이 근로자는 주휴수당을 받을 자격이 있을까요?",
+      "result_c": "네, 해당 근로자는 1주간 소정근로일수를 채웠다면 주휴수당을 받을 자격이 있습니다. 시스템은 계약서와 근무시간을 바탕으로 주휴수당을 자동으로 계산합니다. 만약 주휴수당 지급 대상이 아닌 경우, 시스템에서 자동으로 제외됩니다."
     }
   ],
   "cautions": [
-    "노무비 명세서 금액 수정이 필요한 경우, 반드시 수정 사유를 입력해주세요. 수정 사유는 추후 소명 자료로 활용됩니다.",
-    "모든 근무 시간과 계약 조건을 정확하게 입력하시는 것이 정확한 노무비 계산에 중요합니다."
+    "노무비명세서 금액 수정이 필요한 경우, 반드시 사유를 입력해주세요. 수정 사유는 추후 소명자료로 사용됩니다.",
+    "노무비명세서 작성 시, 계약서 정보와 출퇴근 내역을 정확하게 입력하는 것이 중요합니다. 잘못된 정보 입력은 노무비 오류로 이어질 수 있습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업을 검색하신 후, 원하시는 사업명 앞의 체크박스를 체크하시면 됩니다.",
-    "체크 후 사업연결 신청 버튼을 클릭하시면 사업 연결 신청이 완료됩니다."
+    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업을 검색하신 후, 원하는 사업명 앞의 체크박스를 선택해주세요.",
+    "사업명을 정확하게 입력하신 후, '사업연결 신청' 버튼을 클릭하여 사업 연결을 신청하실 수 있습니다."
   ],
   "examples": [
     {
-      "scenario": "사업명을 정확히 입력했으나 사업 검색이 되지 않는 경우, 시공사 또는 건설사업관리자는 발주처에 사업 연결 여부를 확인해야 합니다. 발주처의 사업 연결 상태를 확인하시고, 연결되지 않았다면 발주처 담당자에게 문의하여 사업 연결을 요청해 주시기 바랍니다.",
-      "result_a": "발주처가 이미 사업에 연결되어 있는 경우, 사업명을 다시 한번 정확하게 입력하여 검색해 보시기 바랍니다. 만약 정확한 사업명을 입력했는데도 검색이 되지 않는다면, 시스템 관리자에게 문의하여 도움을 받으실 수 있습니다.",
-      "result_b": "발주처가 사업에 연결되어 있지 않은 경우, 발주처 담당자에게 사업 연결을 요청하시고 연결이 완료된 후 다시 시도해 주시기 바랍니다."
+      "scenario": "시공사 담당자가 발주처 사업에 연결하고자 할 때, 정확한 사업명을 입력했으나 검색 결과가 나타나지 않는 경우",
+      "result_a": "사업명 오류 가능성이 있으므로, 사업명을 다시 한번 정확하게 입력해주시고, 사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색해 보시기 바랍니다.",
+      "result_b": "만약 조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 준공예정일이 지났다면, 사업 상태가 '종료'로 변경되었을 수 있습니다.  이 경우, 발주처 담당자에게 문의하여 공기연장 처리를 요청하시고, 그 후 다시 사업 연결을 시도해주시기 바랍니다."
     },
     {
-      "scenario": "조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 사업 상태가 종료된 경우",
-      "result_c": "사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색하신 후 사업 연결을 진행하시고, 발주처 사용자는 사업 연결 후 반드시 공기연장 처리를 해주셔야 합니다."
+      "scenario": "발주처 담당자가 본인이 담당하는 사업에 연결되어 있지 않은 경우",
+      "result_c": "즉시 권한관리 &gt; 사업연결/등록신청 메뉴를 통해 본인이 담당하는 사업과 연결해주시기 바랍니다.  시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업연결 신청을 할 수 없으므로, 원활한 사업 진행을 위해 발주처 담당자의 협조가 필요합니다."
     }
   ],
   "cautions": [
-    "사업 검색이 되지 않는 경우, 사업명의 정확한 입력 여부를 다시 한번 확인해주세요. 사업명이 유사한 경우가 많으므로 정확한 사업명을 입력하시는 것이 중요합니다.",
-    "시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업 연결 신청을 할 수 없습니다. 발주처는 본인의 담당 사업에 항상 연결되어 있는지 확인해주시기 바랍니다."
+    "사업명 검색 시, 사업명이 유사한 경우가 많으므로 정확한 사업명을 입력해야 합니다.",
+    "공기연장이 이루어진 경우, OnePMIS에서 공기연장 처리를 반드시 완료해야 사업 연결이 가능합니다. 발주처 사용자는 사업연결 후 공기연장 처리를 꼭 해주셔야 합니다."
   ]
 }</t>
   </si>
   <si>
     <t>[
   "비밀번호",
-  "비밀번호찾기",
-  "패스워드",
+  "비밀번호 찾기",
+  "로그인",
   "본인확인",
   "휴대폰",
   "신용카드",
   "아이핀",
   "인증",
   "재설정",
-  "분실",
-  "잊어버림",
-  "비밀 번호",
-  "패스워드 찾기",
-  "본인 인증"
+  "비밀번호 분실",
+  "비밀번호 잊음",
+  "계정",
+  "보안"
 ]</t>
   </si>
   <si>
@@ -248,76 +247,80 @@
   "연장수당",
   "연장근무",
   "초과근무",
+  "주40시간",
+  "일8시간",
   "근로시간",
+  "근무시간",
   "일꾼",
   "근로자",
   "주휴수당",
   "주휴 수당",
   "휴일수당",
+  "휴일",
   "쉬는날",
+  "퇴직금",
+  "퇴직금여"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당",
+  "주휴 수당",
+  "주휴일",
+  "쉬는 날",
+  "소정근로일",
+  "근무일",
+  "근로자",
+  "일꾼",
+  "계약",
+  "개근",
+  "휴일수당",
+  "일주일",
+  "퇴직금",
+  "퇴직금여"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "휴일수당",
   "휴일",
-  "퇴직금",
-  "퇴직금여",
-  "40시간",
-  "8시간"
-]</t>
-  </si>
-  <si>
-    <t>[
+  "쉬는날",
+  "공휴일",
   "주휴수당",
   "주휴 수당",
   "근로자",
   "일꾼",
-  "소정근로일",
-  "계약일",
-  "개근",
-  "휴일",
-  "쉬는 날",
-  "주휴일",
-  "휴일수당",
-  "소정근무일수",
-  "근무일수"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "휴일수당",
-  "휴일",
-  "쉬는날",
-  "공휴일",
-  "근로자",
-  "일꾼",
-  "주휴수당",
-  "주휴 수당",
+  "수당",
   "임시공휴일",
   "대체공휴일",
-  "근로자의날",
-  "수당",
-  "유급휴일",
-  "계약서"
+  "근로계약서",
+  "시급",
+  "일급"
 ]</t>
   </si>
   <si>
     <t>[
   "노무비명세서",
-  "노무비 명세서",
+  "노무비",
+  "명세서",
   "일용근로자",
   "일꾼",
   "계약서",
+  "근로자",
+  "출퇴근",
   "근무시간",
   "기본수당",
   "연장수당",
   "야간수당",
   "휴일수당",
+  "쉬는날",
   "주휴수당",
   "주휴 수당",
   "연차수당",
+  "소득세",
   "원천징수",
-  "소득세",
   "퇴직금",
-  "퇴직금여",
-  "출퇴근",
-  "쉬는날"
+  "퇴직금여"
 ]</t>
   </si>
   <si>
@@ -329,19 +332,18 @@
   "등록신청",
   "사업검색",
   "사업 명",
+  "사업명",
   "체크박스",
-  "신청 버튼",
+  "버튼",
   "공기연장",
   "공기 연장",
   "준공예정일",
   "준공 예정일",
+  "OnePMIS",
   "발주처",
   "시공사",
   "건설사업관리자",
-  "OnePMIS",
-  "상태",
-  "완료",
-  "전체"
+  "건설 사업 관리자"
 ]</t>
   </si>
 </sst>

--- a/docs/enhanced_qa_pairs.xlsx
+++ b/docs/enhanced_qa_pairs.xlsx
@@ -47,199 +47,204 @@
   </si>
   <si>
     <t>[
-  "비밀번호를 잊어버렸을 경우 어떻게 해야 하나요?",
-  "혹시 비밀번호를 분실했는데, 어떻게 다시 찾을 수 있을까요?",
-  "로그인 비밀번호가 생각나지 않는데, 비밀번호 찾는 방법을 알려주시겠습니까?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "연장 근무 수당은 어떤 경우에 지급받을 수 있나요?",
-  "연장 근무에 대한 수당은 어떠한 조건을 충족해야 지급되나요?",
-  "초과 근무 시 발생하는 수당에 대해 자세히 알려주시겠습니까?"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "주휴수당이 발생하는 조건에 대해 자세히 설명해주시겠습니까?",
-  "주휴수당 지급과 관련된 기준은 무엇인가요?",
+  "비밀번호를 분실했을 경우 어떻게 해야 할까요?",
+  "혹시 비밀번호를 잊어버렸다면 어떤 방법으로 찾을 수 있을까요?",
+  "로그인 비밀번호를 기억나지 않을 때는 어떻게 해야 하나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "연장 근무 수당은 어떤 경우에 발생하나요?",
+  "연장 수당이 지급되는 조건은 무엇인가요?",
+  "어떤 경우에 연장 근무에 대한 수당을 받을 수 있나요?"
+]</t>
+  </si>
+  <si>
+    <t>[
+  "주휴수당이 발생하는 조건은 무엇인가요?",
+  "주휴수당 지급에 관한 자세한 조건을 알고 싶습니다.",
   "어떤 경우에 주휴수당을 받을 수 있나요?"
 ]</t>
   </si>
   <si>
     <t>[
-  "휴일 근무 시 수당은 어떻게 지급되나요?",
-  "휴일 수당은 어떤 경우에 발생하나요?",
+  "휴일 근무에 대한 수당은 어떻게 지급되나요?",
+  "휴일 근무 시 추가로 받을 수 있는 수당은 무엇인가요?",
   "공휴일에 일했을 때 받는 수당에 대해 알고 싶습니다."
 ]</t>
   </si>
   <si>
     <t>[
-  "노무비명세서 작성 방법을 알려주시겠습니까?",
-  "노무비명세서는 어떻게 작성해야 하나요?",
-  "노무비명세서를 작성하는 절차에 대해 자세히 설명해 주시겠습니까?"
+  "노무비 명세서 작성 방법을 알려주시겠습니까?",
+  "노무비 명세서를 어떻게 작성해야 하는지 자세히 설명해주세요.",
+  "노무비 명세서 작성에 대해 안내 부탁드립니다."
 ]</t>
   </si>
   <si>
     <t>[
   "사업 연결 방법을 알려주시겠습니까?",
   "어떻게 하면 사업을 연결할 수 있을까요?",
-  "사업 연결 절차에 대해 자세히 설명해주시면 감사하겠습니다."
+  "사업 연결 절차에 대해 자세히 설명해 주시겠습니까?"
 ]</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "로그인 화면에서 비밀번호 찾기 기능을 이용하실 수 있습니다.",
+    "로그인 화면에서 비밀번호 찾기 기능을 이용하시면 됩니다.",
     "본인 확인 절차를 거쳐야 비밀번호를 재설정하실 수 있습니다."
   ],
   "examples": [
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호가 등록되어 있다고 가정해 보겠습니다.",
-      "result_a": "로그인 화면의 비밀번호 찾기를 클릭하신 후, 휴대전화 번호를 입력하시면 인증번호가 발송됩니다.",
-      "result_b": "인증번호를 입력하시고 새로운 비밀번호를 설정하시면 비밀번호 변경이 완료됩니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대폰 번호가 등록되어 있다면 어떻게 해야 할까요?",
+      "result_a": "로그인 화면의 비밀번호 찾기 기능을 클릭하신 후, 안내에 따라 휴대폰 번호를 입력하시면 됩니다.",
+      "result_b": "인증번호를 받으신 후, 새로운 비밀번호를 설정하시면 됩니다."
     },
     {
-      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대전화 번호는 등록되어 있지 않지만, 신용카드 정보가 등록되어 있다고 가정해 보겠습니다.",
-      "result_c": "로그인 화면의 비밀번호 찾기를 클릭하신 후, 신용카드 정보를 이용하여 본인 확인 절차를 거치신 후 새로운 비밀번호를 설정하실 수 있습니다."
+      "scenario": "회원님께서 비밀번호를 잊어버리셨고, 휴대폰 번호가 등록되어 있지 않은 경우에는 어떻게 해야 할까요?",
+      "result_c": "다른 본인확인 수단(예: 신용카드, 아이핀)을 이용하거나, 고객센터에 문의하셔서 도움을 받으실 수 있습니다."
     }
   ],
   "cautions": [
-    "본인 확인 절차에 필요한 정보를 정확하게 입력해주셔야 합니다.",
-    "비밀번호는 안전하게 관리하시고, 정기적으로 변경해주시는 것이 좋습니다."
+    "본인 확인 절차에 필요한 정보를 정확하게 입력해주시기 바랍니다.",
+    "비밀번호를 재설정하신 후에는 안전한 비밀번호를 설정하시고, 주기적으로 변경하는 것을 권장합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "주 40시간을 초과하여 근무하신 경우 연장 근무 수당이 발생합니다.",
-    "1일에 8시간을 초과하여 근무하신 경우 연장 근무 수당이 발생합니다."
+    "주간 근무 시간이 40시간을 초과하는 경우 연장 수당이 발생합니다.",
+    "하루 8시간을 초과하여 근무하는 경우에도 연장 수당이 발생합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무하셨다면,",
-      "result_a": "주 40시간을 초과한 8시간에 대해 연장 근무 수당이 지급됩니다.",
-      "result_b": "일일 8시간을 초과한 시간은 없으므로, 이 부분에 대한 연장 수당은 없습니다."
+      "scenario": "월요일부터 토요일까지 매일 8시간씩 총 48시간 근무하셨다면, 40시간을 초과한 8시간에 대해 연장 수당이 지급됩니다. 이 경우 주휴수당도 함께 지급될 수 있습니다. 주휴수당은 일주일에 15시간 이상 근무하신 경우에 발생하며, 근로기준법에 따라 지급 여부와 금액이 정해집니다.",
+      "result_a": "40시간 초과 근무에 대한 연장 수당 지급",
+      "result_b": "주휴수당 지급 여부 확인 및 지급 (15시간 이상 근무 시)"
     },
     {
-      "scenario": "월요일부터 금요일까지는 하루 8시간씩 근무하고, 토요일에 4시간 추가 근무를 하셨다면,",
-      "result_c": "주 40시간을 초과한 4시간에 대해 연장 근무 수당이 지급됩니다."
+      "scenario": "월요일부터 금요일까지는 하루 8시간씩 근무하시고, 토요일에 4시간 근무하셨다면, 총 근무시간은 44시간입니다. 이 경우 4시간에 대한 연장 수당이 지급됩니다.",
+      "result_c": "4시간 초과 근무에 대한 연장 수당 지급"
     }
   ],
   "cautions": [
-    "연장 근무 수당의 계산 방식은 회사 내규에 따라 다를 수 있으므로, 정확한 내용은 회사에 문의하시는 것이 좋습니다.",
-    "연장 근무 시간 기록은 정확하게 관리해야 수당 지급에 문제가 발생하지 않습니다."
+    "연장 근무에 대한 수당 지급 기준은 회사 내규 및 근로계약서에 따라 다를 수 있습니다. 따라서, 자세한 내용은 회사에 문의하시는 것이 좋습니다.",
+    "연장 근무 시간에 대한 정확한 기록을 유지하시는 것이 중요합니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "계약서 상에 명시된 소정 근로일을 모두 근무하셔야 합니다.",
-    "해당 주의 모든 근로 계약 기간이 포함되어야 주휴수당이 발생합니다."
+    "근로자분께서 계약서에 명시된 소정근로일을 모두 근무하셨어야 합니다.",
+    "해당 주의 모든 계약 근무일에 대한 근무가 완료되어야 합니다. 즉, 소정근로일만 근무했다고 해서 주휴수당이 발생하는 것이 아니라, 계약된 모든 근무일에 대한 근무가 완료되어야 합니다."
   ],
   "examples": [
     {
-      "scenario": "월요일부터 금요일까지 근무하는 두 명의 근로자 A와 B가 있습니다. A는 월요일부터 금요일까지(5일)의 계약을, B는 월요일부터 일요일까지(7일)의 계약을 체결했습니다.",
-      "result_a": "A씨의 경우, 주중 5일 계약만 체결되어 주휴수당이 발생하지 않습니다.",
-      "result_b": "B씨의 경우, 일주일 전체(7일) 계약이 체결되었으므로 주휴수당이 발생합니다."
+      "scenario": "월요일부터 금요일까지가 소정근로일인 두 명의 근로자 A씨와 B씨가 있습니다. A씨는 월요일부터 금요일까지 5일 계약을, B씨는 월요일부터 일요일까지 7일 계약을 체결하였습니다. 두 분 모두 월요일부터 금요일까지 5일을 근무하셨습니다.",
+      "result_a": "A씨는 계약상 5일 근무만으로, 7일 계약이 아닌 경우이므로 주휴수당이 발생하지 않습니다.",
+      "result_b": "B씨는 계약상 7일 근무 중 5일을 근무하였지만, 나머지 2일은 휴무로 계약되어 있으므로 주휴수당이 발생합니다."
     },
     {
-      "scenario": "C씨는 토요일에도 근무하는 계약을 맺었지만, 토요일에 개인적인 사정으로 결근했습니다.  나머지 근무일은 모두 소정 근로일을 채웠습니다.",
-      "result_c": "C씨는 소정 근로일에 결근하였으므로, 주휴수당이 발생하지 않습니다."
+      "scenario": "C씨는 토요일과 일요일이 포함된 7일 계약을 맺고 월요일부터 일요일까지 모두 근무하였습니다.  소정근로일은 월요일부터 금요일까지입니다.",
+      "result_c": "C씨는 소정근로일인 월요일부터 금요일까지 모두 근무하였고, 계약상 모든 근무일에 대한 근무를 완료하였으므로 주휴수당이 발생합니다."
     }
   ],
   "cautions": [
-    "주휴수당 발생 여부는 근로계약서의 내용을 정확히 확인하셔야 합니다.",
-    "결근이나 지각 등으로 인해 소정 근로일을 모두 채우지 못한 경우에는 주휴수당이 지급되지 않을 수 있습니다."
+    "계약서에 명시된 소정근로일과 실제 근무일, 그리고 계약 기간을 정확히 확인하셔야 주휴수당 발생 여부를 판단할 수 있습니다.",
+    "회사 내부 규정이나 노동법에 따라 주휴수당 지급 기준이 다를 수 있으므로, 해당 내용을 꼼꼼하게 확인하시는 것이 좋습니다."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "휴일수당은 사용자와 근로자 간의 계약서에 명시된 휴일 및 법정 공휴일(임시공휴일 및 대체공휴일 포함)에 근무하신 경우 발생합니다.",
-    "휴일수당은 일반적으로 기본 시급 또는 일급의 50%를 가산하여 지급됩니다.  정확한 계산 방식은 회사 내규 또는 근로계약서를 참고해주시기 바랍니다."
+    "휴일수당은 사용자와 근로자 간의 계약서에 명시된 휴일, 그리고 법적으로 정해진 공휴일(임시공휴일 및 대체공휴일 포함)과 근로자의 날에 근무하신 경우 발생합니다.",
+    "휴일수당은 일반적으로 해당 근무일에 대한 기본 시급 또는 일급에 50%의 가산금이 더해져 지급됩니다."
   ],
   "examples": [
     {
-      "scenario": "근로자 A씨가 1월 1일(신정)에 8시간 근무하였고, 시급이 10,000원입니다.  근로자 B씨는 같은 날 4시간 근무하였고, 시급은 12,000원입니다.",
-      "result_a": "A씨의 휴일수당은 (10,000원 * 8시간 * 0.5) + (10,000원 * 8시간) = 120,000원 입니다.",
-      "result_b": "B씨의 휴일수당은 (12,000원 * 4시간 * 0.5) + (12,000원 * 4시간) = 60,000원 입니다."
+      "scenario": "근로자 A씨가 5월 1일(근로자의 날)에 8시간 근무하였고, 시급이 10,000원이라고 가정해 보겠습니다.  같은 날 근로자 B씨도 4시간 근무하였습니다.",
+      "result_a": "A씨의 휴일수당은 (10,000원 × 8시간 × 1.5) = 120,000원 입니다.",
+      "result_b": "B씨의 휴일수당은 (10,000원 × 4시간 × 1.5) = 60,000원 입니다."
     },
     {
-      "scenario": "근로자 C씨가 주 5일 근무를 하며, 회사 규정에 따른 유급휴일인 토요일에 8시간 근무를 하였고, 시급이 11,000원입니다.",
-      "result_c": "C씨의 휴일수당은 (11,000원 * 8시간 * 0.5) + (11,000원 * 8시간) = 132,000원 입니다."
+      "scenario": "근로자 C씨가 설날(공휴일)에 6시간 근무하고, 일급이 80,000원이라고 가정해 보겠습니다.",
+      "result_c": "C씨의 휴일수당은 (80,000원 × 1.5) = 120,000원 입니다. 단, 계약에 다른 내용이 명시되어 있을 수 있으므로, 반드시 계약 내용을 확인하시기 바랍니다."
     }
   ],
   "cautions": [
-    "휴일수당 지급에 대한 자세한 내용은 회사 내규 또는 근로계약서를 꼼꼼히 확인해주시기 바랍니다.",
-    "계약서에 명시되지 않은 휴일 또는 근무에 대한 수당 지급 여부는 회사와 협의가 필요합니다."
+    "계약서에 명시된 휴일 및 수당 지급 기준을 꼼꼼히 확인하시기 바랍니다.  계약 내용에 따라 휴일수당 지급 방식이 다를 수 있습니다.",
+    "회사 내규 및 관련 법률을 준수하여 휴일수당이 정확하게 지급되도록 주의하시기 바랍니다.  궁금한 사항은 담당자에게 문의해주세요."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "노무비명세서는 직접 입력하실 수 없습니다. 시스템을 통해 자동으로 계산됩니다.",
-    "일용근로자계약서를 작성하고 근로자의 출퇴근 내역을 입력하시면 시스템이 노무비를 자동 계산합니다."
+    "노무비 명세서는 직접 입력하실 수 없으며, 시스템을 통해 자동으로 계산됩니다.",
+    "일용근로자계약서를 작성하고 근로자의 출퇴근 내역을 입력하시면 시스템에서 노무비 명세서를 자동으로 생성합니다."
   ],
   "examples": [
     {
-      "scenario": "일용근로자와 계약을 맺고 10일간 근무하였으며, 그 중 2일은 야간근무, 1일은 휴일근무를 하였습니다. 계약서 상의 일일 임금은 10만원입니다.",
-      "result_a": "시스템은 계약서 상의 임금과 근무시간을 바탕으로 기본급(10일*10만원=100만원), 야간수당(2일분), 휴일수당(1일분)을 계산합니다.",
-      "result_b": "계산된 총 노무비와 소득세 등 원천징수 금액이 노무비명세서에 자동으로 표시됩니다."
+      "scenario": "일용직 근로자 A씨가 10일간 근무하였고, 계약 시 임금은 일급 10만원으로 협의되었습니다.  주중 8일, 주말 2일 근무하였으며, 야간 근무는 없었습니다.  연장 근무는 하지 않았습니다.",
+      "result_a": "시스템은 계약서 상의 일급 10만원을 기준으로 기본 수당 80만원(10만원/일 * 8일)을 계산합니다.",
+      "result_b": "주말 근무에 대한 주휴수당은 별도로 계산되어 기본수당에 추가됩니다.  (주휴수당 계산 방식은 회사 내규에 따라 다를 수 있습니다.)"
     },
     {
-      "scenario": "주 5일 근무 계약을 맺은 근로자가 주휴일(토요일)에 휴식을 취했습니다. 이 근로자는 주휴수당을 받을 자격이 있을까요?",
-      "result_c": "네, 해당 근로자는 1주간 소정근로일수를 채웠다면 주휴수당을 받을 자격이 있습니다. 시스템은 계약서와 근무시간을 바탕으로 주휴수당을 자동으로 계산합니다. 만약 주휴수당 지급 대상이 아닌 경우, 시스템에서 자동으로 제외됩니다."
+      "scenario": "일용직 근로자 B씨가 5일간 근무하였고, 일급 15만원으로 계약되었습니다.  주중 5일 근무하였고, 야간 근무와 연장 근무는 없었습니다.  다만, B씨는 회사 내규에 따라 주휴수당을 지급받지 않습니다.",
+      "result_c": "시스템은 계약서 상의 일급 15만원을 기준으로 기본 수당 75만원(15만원/일 * 5일)을 계산하며, 주휴수당은 지급되지 않습니다."
     }
   ],
   "cautions": [
-    "노무비명세서 금액 수정이 필요한 경우, 반드시 사유를 입력해주세요. 수정 사유는 추후 소명자료로 사용됩니다.",
-    "노무비명세서 작성 시, 계약서 정보와 출퇴근 내역을 정확하게 입력하는 것이 중요합니다. 잘못된 정보 입력은 노무비 오류로 이어질 수 있습니다."
+    "노무비 명세서 금액 수정이 필요한 경우, 반드시 사유를 입력해주세요.  입력하신 사유는 추후 소명 자료로 활용됩니다.",
+    "시스템에서 자동으로 계산된 노무비 명세서 내용을 꼼꼼히 확인하시고, 잘못된 부분이 있다면 담당자에게 문의해주세요."
   ]
 }</t>
   </si>
   <si>
     <t>{
   "basic_rules": [
-    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업을 검색하신 후, 원하는 사업명 앞의 체크박스를 선택해주세요.",
-    "사업명을 정확하게 입력하신 후, '사업연결 신청' 버튼을 클릭하여 사업 연결을 신청하실 수 있습니다."
+    "권한관리 &gt; 사업연결/등록신청 메뉴에서 사업을 검색하신 후, 원하시는 사업명 앞의 체크박스를 체크하시면 됩니다.",
+    "체크 후 사업연결 신청 버튼을 클릭하시면 사업 연결 신청이 완료됩니다."
   ],
   "examples": [
     {
-      "scenario": "시공사 담당자가 발주처 사업에 연결하고자 할 때, 정확한 사업명을 입력했으나 검색 결과가 나타나지 않는 경우",
-      "result_a": "사업명 오류 가능성이 있으므로, 사업명을 다시 한번 정확하게 입력해주시고, 사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색해 보시기 바랍니다.",
-      "result_b": "만약 조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리가 되지 않아 준공예정일이 지났다면, 사업 상태가 '종료'로 변경되었을 수 있습니다.  이 경우, 발주처 담당자에게 문의하여 공기연장 처리를 요청하시고, 그 후 다시 사업 연결을 시도해주시기 바랍니다."
+      "scenario": "시공사 담당자께서 발주처 사업을 검색했으나, 해당 사업이 검색되지 않는 경우",
+      "result_a": "사업명을 정확하게 입력하셨는지 다시 한번 확인해주세요. 사업명이 유사한 경우가 많으므로 정확한 사업명을 입력하셔야 검색이 가능합니다.",
+      "result_b": "조달청을 통해 공기 연장이 이루어진 후 OnePMIS에서 공기 연장 처리가 되지 않아 사업 상태가 종료된 경우일 수 있습니다. 이 경우 사업명 왼쪽의 상태를 '전체' 또는 '완료'로 변경하여 검색해 보시기 바랍니다. 발주처 담당자께서는 사업 연결 후 공기 연장 처리를 꼭 해주셔야 합니다."
     },
     {
-      "scenario": "발주처 담당자가 본인이 담당하는 사업에 연결되어 있지 않은 경우",
-      "result_c": "즉시 권한관리 &gt; 사업연결/등록신청 메뉴를 통해 본인이 담당하는 사업과 연결해주시기 바랍니다.  시공사와 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업연결 신청을 할 수 없으므로, 원활한 사업 진행을 위해 발주처 담당자의 협조가 필요합니다."
+      "scenario": "발주처 담당자가 사업 연결 후 공기 연장 처리를 하지 않은 경우",
+      "result_c": "추후 사업 진행에 차질이 발생할 수 있으므로, 발주처 담당자께서는 사업 연결 후 반드시 OnePMIS에서 공기 연장 처리를 완료해 주시기 바랍니다."
     }
   ],
   "cautions": [
-    "사업명 검색 시, 사업명이 유사한 경우가 많으므로 정확한 사업명을 입력해야 합니다.",
-    "공기연장이 이루어진 경우, OnePMIS에서 공기연장 처리를 반드시 완료해야 사업 연결이 가능합니다. 발주처 사용자는 사업연결 후 공기연장 처리를 꼭 해주셔야 합니다."
+    "시공사 및 건설사업관리자는 발주처가 사업에 연결되어 있지 않으면 사업 연결 신청을 할 수 없습니다. 발주처 담당자께서는 본인이 담당하는 사업에 항상 연결되어 있는지 확인해 주시기 바랍니다.",
+    "사업 검색 시 사업명을 정확하게 입력하지 않으면 검색 결과가 나타나지 않을 수 있습니다.  정확한 사업명을 입력하시는 것을 권장합니다."
   ]
 }</t>
   </si>
   <si>
     <t>[
   "비밀번호",
-  "비밀번호 찾기",
+  "비밀번호찾기",
   "로그인",
   "본인확인",
   "휴대폰",
   "신용카드",
   "아이핀",
+  "비밀번호 재설정",
+  "계정",
+  "보안",
   "인증",
-  "재설정",
-  "비밀번호 분실",
-  "비밀번호 잊음",
-  "계정",
-  "보안"
+  "분실",
+  "잊어버림",
+  "비밀 번호",
+  "본인 확인",
+  "휴대폰번호",
+  "신용 카드",
+  "아이 핀"
 ]</t>
   </si>
   <si>
@@ -247,37 +252,35 @@
   "연장수당",
   "연장근무",
   "초과근무",
-  "주40시간",
-  "일8시간",
   "근로시간",
-  "근무시간",
+  "주휴수당",
+  "주휴 수당",
   "일꾼",
   "근로자",
+  "휴일",
+  "쉬는 날",
+  "퇴직금",
+  "퇴직금여",
+  "시간외근무",
+  "40시간"
+]</t>
+  </si>
+  <si>
+    <t>[
   "주휴수당",
   "주휴 수당",
   "휴일수당",
-  "휴일",
-  "쉬는날",
-  "퇴직금",
-  "퇴직금여"
-]</t>
-  </si>
-  <si>
-    <t>[
-  "주휴수당",
-  "주휴 수당",
-  "주휴일",
-  "쉬는 날",
   "소정근로일",
-  "근무일",
   "근로자",
   "일꾼",
+  "개근",
   "계약",
-  "개근",
-  "휴일수당",
-  "일주일",
-  "퇴직금",
-  "퇴직금여"
+  "근무",
+  "휴일",
+  "쉬는 날",
+  "주휴",
+  "소정",
+  "일주일"
 ]</t>
   </si>
   <si>
@@ -286,27 +289,24 @@
   "휴일",
   "쉬는날",
   "공휴일",
+  "근로자의날",
+  "근로자",
+  "일꾼",
   "주휴수당",
   "주휴 수당",
-  "근로자",
-  "일꾼",
   "수당",
-  "임시공휴일",
-  "대체공휴일",
-  "근로계약서",
-  "시급",
-  "일급"
+  "가산금",
+  "퇴직금",
+  "퇴직금여"
 ]</t>
   </si>
   <si>
     <t>[
   "노무비명세서",
-  "노무비",
-  "명세서",
+  "노무비 명세서",
   "일용근로자",
   "일꾼",
   "계약서",
-  "근로자",
   "출퇴근",
   "근무시간",
   "기본수당",
@@ -327,23 +327,19 @@
     <t>[
   "사업연결",
   "사업 연결",
-  "연결",
   "권한관리",
   "등록신청",
-  "사업검색",
-  "사업 명",
-  "사업명",
-  "체크박스",
-  "버튼",
   "공기연장",
   "공기 연장",
-  "준공예정일",
-  "준공 예정일",
   "OnePMIS",
   "발주처",
   "시공사",
   "건설사업관리자",
-  "건설 사업 관리자"
+  "사업명",
+  "체크박스",
+  "준공예정일",
+  "사업상태",
+  "종료"
 ]</t>
   </si>
 </sst>
